--- a/tests/Feature/config/example_simple_tenpercent.xlsx
+++ b/tests/Feature/config/example_simple_tenpercent.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>private</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule </t>
   </si>
   <si>
     <t xml:space="preserve"> Asset rule </t>
@@ -489,6 +492,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Asset rule Normal: 0</t>
+  </si>
+  <si>
     <t>My house</t>
   </si>
   <si>
@@ -507,100 +513,100 @@
     <t xml:space="preserve">Using previous value: 105996 Asset rule Adding previous divisor rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 116596 Asset rule </t>
+    <t>Using previous value: 116596 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 128255 Asset rule </t>
+    <t>Using previous value: 128255 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 141081 Asset rule </t>
+    <t>Using previous value: 141081 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 155189 Asset rule </t>
+    <t>Using previous value: 155189 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 170708 Asset rule </t>
+    <t>Using previous value: 170708 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 187778 Asset rule </t>
+    <t>Using previous value: 187778 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 206556 Asset rule </t>
+    <t>Using previous value: 206556 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 227212 Asset rule </t>
+    <t>Using previous value: 227212 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 249933 Asset rule </t>
+    <t>Using previous value: 249933 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 274926 Asset rule </t>
+    <t>Using previous value: 274926 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 302419 Asset rule </t>
+    <t>Using previous value: 302419 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 332661 Asset rule </t>
+    <t>Using previous value: 332661 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 365927 Asset rule </t>
+    <t>Using previous value: 365927 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 402520 Asset rule </t>
+    <t>Using previous value: 402520 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 442772 Asset rule </t>
+    <t>Using previous value: 442772 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 487049 Asset rule </t>
+    <t>Using previous value: 487049 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 535754 Asset rule </t>
+    <t>Using previous value: 535754 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 589329 Asset rule </t>
+    <t>Using previous value: 589329 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 648262 Asset rule </t>
+    <t>Using previous value: 648262 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 713088 Asset rule </t>
+    <t>Using previous value: 713088 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 784397 Asset rule </t>
+    <t>Using previous value: 784397 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 862837 Asset rule </t>
+    <t>Using previous value: 862837 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 949120 Asset rule </t>
+    <t>Using previous value: 949120 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 1044032 Asset rule </t>
+    <t>Using previous value: 1044032 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 1148435 Asset rule </t>
+    <t>Using previous value: 1148435 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 1263279 Asset rule </t>
+    <t>Using previous value: 1263279 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 1389607 Asset rule </t>
+    <t>Using previous value: 1389607 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 1528568 Asset rule </t>
+    <t>Using previous value: 1528568 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 1681424 Asset rule </t>
+    <t>Using previous value: 1681424 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 1849567 Asset rule </t>
+    <t>Using previous value: 1849567 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 2034524 Asset rule </t>
+    <t>Using previous value: 2034524 Asset rule Normal: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 2237976 Asset rule </t>
+    <t>Using previous value: 2237976 Asset rule Normal: 0</t>
   </si>
   <si>
     <t>fond privat</t>
@@ -1285,11 +1291,11 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
@@ -1304,7 +1310,7 @@
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -3775,17 +3781,17 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="8">
-        <v>0</v>
+        <v>150000.0</v>
       </c>
       <c r="J38" s="8">
-        <v>0</v>
+        <v>26189.437158819</v>
       </c>
       <c r="K38" s="8">
-        <v>0</v>
+        <v>1473810.5628412</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
@@ -3793,7 +3799,7 @@
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
-        <v>0</v>
+        <v>33000.0</v>
       </c>
       <c r="P38" s="8">
         <v>706250.0</v>
@@ -3809,10 +3815,10 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>-80140.5</v>
+        <v>-223329.93715882</v>
       </c>
       <c r="V38" s="8">
-        <v>706250.0</v>
+        <v>-767560.56284118</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -3822,16 +3828,16 @@
         <v>2640000.0</v>
       </c>
       <c r="Z38" s="8">
-        <v>2640000.0</v>
+        <v>1166189.4371588</v>
       </c>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>26189.437158819</v>
       </c>
       <c r="AB38" s="7">
-        <v>-49716.0</v>
+        <v>-140526.56284118</v>
       </c>
       <c r="AC38" s="9">
-        <v>-0.089968729188986</v>
+        <v>-0.22970059943924</v>
       </c>
       <c r="AD38" s="7"/>
     </row>
@@ -3851,17 +3857,17 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>147381.05628412</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>28808.3808747</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1445002.1819665</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
@@ -3869,7 +3875,7 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
-        <v>0</v>
+        <v>32423.832382506</v>
       </c>
       <c r="P39" s="6">
         <v>798625.0</v>
@@ -3885,10 +3891,10 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-88313.97</v>
+        <v>-232079.57477631</v>
       </c>
       <c r="V39" s="1">
-        <v>798625.0</v>
+        <v>-646377.18196648</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -3898,16 +3904,16 @@
         <v>2904000.0</v>
       </c>
       <c r="Z39" s="1">
-        <v>2904000.0</v>
+        <v>1458997.8180335</v>
       </c>
       <c r="AA39">
-        <v>0.0</v>
+        <v>28808.3808747</v>
       </c>
       <c r="AB39">
-        <v>-53525.0</v>
+        <v>-139673.84302691</v>
       </c>
       <c r="AC39" s="2">
-        <v>-0.087888136341305</v>
+        <v>-0.20839221518133</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3927,17 +3933,17 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
-        <v>0</v>
+        <v>144500.21819665</v>
       </c>
       <c r="J40" s="11">
-        <v>0</v>
+        <v>31689.218962171</v>
       </c>
       <c r="K40" s="11">
-        <v>0</v>
+        <v>1413312.9630043</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
@@ -3945,7 +3951,7 @@
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
-        <v>0</v>
+        <v>31790.048003263</v>
       </c>
       <c r="P40" s="11">
         <v>903871.0</v>
@@ -3961,10 +3967,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-97335.314</v>
+        <v>-241734.70315556</v>
       </c>
       <c r="V40" s="11">
-        <v>903871.0</v>
+        <v>-509441.96300431</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -3974,16 +3980,16 @@
         <v>3194400.0</v>
       </c>
       <c r="Z40" s="11">
-        <v>3194400.0</v>
+        <v>1781087.0369957</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>31689.218962171</v>
       </c>
       <c r="AB40" s="10">
-        <v>-57600.0</v>
+        <v>-138620.95123121</v>
       </c>
       <c r="AC40" s="12">
-        <v>-0.085817491464139</v>
+        <v>-0.18868436490417</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -4003,17 +4009,17 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>141331.29630043</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>34858.140858388</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1378454.8221459</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
@@ -4021,7 +4027,7 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
-        <v>0</v>
+        <v>31092.885186095</v>
       </c>
       <c r="P41" s="6">
         <v>1023492.0</v>
@@ -4037,10 +4043,10 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-107290.9076</v>
+        <v>-252387.45957272</v>
       </c>
       <c r="V41" s="1">
-        <v>1023492.0</v>
+        <v>-354962.82214592</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -4050,16 +4056,16 @@
         <v>3513840.0</v>
       </c>
       <c r="Z41" s="1">
-        <v>3513840.0</v>
+        <v>2135385.1778541</v>
       </c>
       <c r="AA41">
-        <v>0.0</v>
+        <v>34858.140858388</v>
       </c>
       <c r="AB41">
-        <v>-61955.0</v>
+        <v>-137334.87025595</v>
       </c>
       <c r="AC41" s="2">
-        <v>-0.083755053422084</v>
+        <v>-0.17046096012154</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -4079,17 +4085,17 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>137845.48221459</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>38343.954944226</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1340110.8672017</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
@@ -4097,7 +4103,7 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
-        <v>0</v>
+        <v>30326.00608721</v>
       </c>
       <c r="P42" s="6">
         <v>1159179.0</v>
@@ -4113,10 +4119,10 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-118276.07316</v>
+        <v>-264139.50423161</v>
       </c>
       <c r="V42" s="1">
-        <v>1159179.0</v>
+        <v>-180931.8672017</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -4126,16 +4132,16 @@
         <v>3865224.0</v>
       </c>
       <c r="Z42" s="1">
-        <v>3865224.0</v>
+        <v>2525113.1327983</v>
       </c>
       <c r="AA42">
-        <v>0.0</v>
+        <v>38343.954944226</v>
       </c>
       <c r="AB42">
-        <v>-66603.0</v>
+        <v>-135778.68118316</v>
       </c>
       <c r="AC42" s="2">
-        <v>-0.081697987479133</v>
+        <v>-0.15361243320285</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -4155,17 +4161,17 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>134011.08672017</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>42178.350438649</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1297932.516763</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
@@ -4173,7 +4179,7 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
-        <v>0</v>
+        <v>29482.439078437</v>
       </c>
       <c r="P43" s="6">
         <v>1312831.0</v>
@@ -4189,10 +4195,10 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-130395.986876</v>
+        <v>-277102.98495638</v>
       </c>
       <c r="V43" s="1">
-        <v>1312831.0</v>
+        <v>14898.483236953</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -4202,16 +4208,16 @@
         <v>4251746.4</v>
       </c>
       <c r="Z43" s="1">
-        <v>4251746.4</v>
+        <v>2953813.883237</v>
       </c>
       <c r="AA43">
-        <v>0.0</v>
+        <v>42178.350438649</v>
       </c>
       <c r="AB43">
-        <v>-71564.0</v>
+        <v>-133913.97320308</v>
       </c>
       <c r="AC43" s="2">
-        <v>-0.079651990565173</v>
+        <v>-0.13803868086533</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -4231,17 +4237,17 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>129793.2516763</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>46396.185482514</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1251536.3312805</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
@@ -4249,7 +4255,7 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
-        <v>0</v>
+        <v>28554.515368787</v>
       </c>
       <c r="P44" s="6">
         <v>1486579.0</v>
@@ -4265,10 +4271,10 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-143766.6961636</v>
+        <v>-291401.61795363</v>
       </c>
       <c r="V44" s="1">
-        <v>1486579.0</v>
+        <v>235042.66871947</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -4278,16 +4284,16 @@
         <v>4676921.04</v>
       </c>
       <c r="Z44" s="1">
-        <v>4676921.04</v>
+        <v>3425384.7087195</v>
       </c>
       <c r="AA44">
-        <v>0.0</v>
+        <v>46396.185482514</v>
       </c>
       <c r="AB44">
-        <v>-76851.0</v>
+        <v>-131693.294425</v>
       </c>
       <c r="AC44" s="2">
-        <v>-0.077613552532726</v>
+        <v>-0.1236410813584</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -4307,17 +4313,17 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>125153.63312805</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>51035.804030765</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1200500.5272498</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
@@ -4325,7 +4331,7 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
-        <v>0</v>
+        <v>27533.799288172</v>
       </c>
       <c r="P45" s="6">
         <v>1682809.0</v>
@@ -4341,10 +4347,10 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-158516.19477996</v>
+        <v>-307171.83265061</v>
       </c>
       <c r="V45" s="1">
-        <v>1682809.0</v>
+        <v>482308.47275023</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -4354,16 +4360,16 @@
         <v>5144613.144</v>
       </c>
       <c r="Z45" s="1">
-        <v>5144613.144</v>
+        <v>3944112.6167502</v>
       </c>
       <c r="AA45">
-        <v>0.0</v>
+        <v>51035.804030765</v>
       </c>
       <c r="AB45">
-        <v>-82478.0</v>
+        <v>-129061.64776912</v>
       </c>
       <c r="AC45" s="2">
-        <v>-0.075581190045618</v>
+        <v>-0.11032607841518</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -4383,17 +4389,17 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>120050.05272498</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>56139.384433842</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1144361.1428159</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
@@ -4401,7 +4407,7 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
-        <v>0</v>
+        <v>26411.011599495</v>
       </c>
       <c r="P46" s="6">
         <v>1904195.0</v>
@@ -4417,10 +4423,10 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-174785.68185796</v>
+        <v>-324564.10741728</v>
       </c>
       <c r="V46" s="1">
-        <v>1904195.0</v>
+        <v>759833.85718407</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -4430,16 +4436,16 @@
         <v>5659074.4584</v>
       </c>
       <c r="Z46" s="1">
-        <v>5659074.4584</v>
+        <v>4514713.3155841</v>
       </c>
       <c r="AA46">
-        <v>0.0</v>
+        <v>56139.384433842</v>
       </c>
       <c r="AB46">
-        <v>-88460.0</v>
+        <v>-125960.03644764</v>
       </c>
       <c r="AC46" s="2">
-        <v>-0.073554904005843</v>
+        <v>-0.098008925199124</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -4455,21 +4461,21 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>797711.62426775</v>
+        <v>797711.62426776</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>114436.11428159</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>61753.322877226</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1082607.8199387</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
@@ -4477,7 +4483,7 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
-        <v>0</v>
+        <v>25175.94514195</v>
       </c>
       <c r="P47" s="6">
         <v>2153726.0</v>
@@ -4493,10 +4499,10 @@
         <v>517.432</v>
       </c>
       <c r="U47" s="6">
-        <v>-192730.86584375</v>
+        <v>-343744.35786063</v>
       </c>
       <c r="V47" s="1">
-        <v>2153726.0</v>
+        <v>1071118.1800613</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -4506,16 +4512,16 @@
         <v>6224981.90424</v>
       </c>
       <c r="Z47" s="1">
-        <v>6224981.90424</v>
+        <v>5142374.0843013</v>
       </c>
       <c r="AA47">
-        <v>0.0</v>
+        <v>61753.322877226</v>
       </c>
       <c r="AB47">
-        <v>-94816.0</v>
+        <v>-122323.06399402</v>
       </c>
       <c r="AC47" s="2">
-        <v>-0.071538030027032</v>
+        <v>-0.086611301037411</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -4531,21 +4537,21 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>877482.78669453</v>
+        <v>877482.78669454</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>108260.78199387</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>67928.655164949</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1014679.1647738</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
@@ -4553,7 +4559,7 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
-        <v>0</v>
+        <v>23817.372038651</v>
       </c>
       <c r="P48" s="6">
         <v>2403624.0</v>
@@ -4569,10 +4575,10 @@
         <v>2539.73</v>
       </c>
       <c r="U48" s="6">
-        <v>-212274.50722813</v>
+        <v>-364646.57234831</v>
       </c>
       <c r="V48" s="1">
-        <v>2403624.0</v>
+        <v>1388944.8352262</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -4582,16 +4588,16 @@
         <v>6847480.094664</v>
       </c>
       <c r="Z48" s="1">
-        <v>6847480.094664</v>
+        <v>5832800.9298902</v>
       </c>
       <c r="AA48">
-        <v>0.0</v>
+        <v>67928.655164949</v>
       </c>
       <c r="AB48">
-        <v>-102805.0</v>
+        <v>-119319.59429503</v>
       </c>
       <c r="AC48" s="2">
-        <v>-0.070442067345601</v>
+        <v>-0.076922208086321</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4607,29 +4613,29 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>965231.06536398</v>
+        <v>965231.065364</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>101467.91647738</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>74721.520681444</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>939957.64409231</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-753222.81041304</v>
+        <v>-753222.81041305</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
-        <v>0</v>
+        <v>22322.941625023</v>
       </c>
       <c r="P49" s="6">
         <v>2716767.0</v>
@@ -4645,29 +4651,29 @@
         <v>5070.864</v>
       </c>
       <c r="U49" s="6">
-        <v>-234079.11895094</v>
+        <v>-387945.61448475</v>
       </c>
       <c r="V49" s="1">
-        <v>2716767.0</v>
+        <v>1776809.3559077</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
         <v>1506445.6208261</v>
       </c>
       <c r="Y49" s="1">
-        <v>7532228.1041304</v>
+        <v>7532228.1041305</v>
       </c>
       <c r="Z49" s="1">
-        <v>7532228.1041304</v>
+        <v>6592270.4600382</v>
       </c>
       <c r="AA49">
-        <v>0.0</v>
+        <v>74721.520681444</v>
       </c>
       <c r="AB49">
-        <v>-110072.0</v>
+        <v>-114495.47762615</v>
       </c>
       <c r="AC49" s="2">
-        <v>-0.068436489426612</v>
+        <v>-0.067135990649048</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4687,25 +4693,25 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>93995.764409231</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>82193.672749588</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>857763.97134272</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-828545.09145434</v>
+        <v>-828545.09145435</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
-        <v>0</v>
+        <v>20679.068170031</v>
       </c>
       <c r="P50" s="6">
         <v>3069010.0</v>
@@ -4721,29 +4727,29 @@
         <v>7917.904</v>
       </c>
       <c r="U50" s="6">
-        <v>-258126.98444603</v>
+        <v>-413637.35343484</v>
       </c>
       <c r="V50" s="1">
-        <v>3069010.0</v>
+        <v>2211246.0286573</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
         <v>1657090.1829087</v>
       </c>
       <c r="Y50" s="1">
-        <v>8285450.9145434</v>
+        <v>8285450.9145435</v>
       </c>
       <c r="Z50" s="1">
-        <v>8285450.9145434</v>
+        <v>7427686.9432008</v>
       </c>
       <c r="AA50">
-        <v>0.0</v>
+        <v>82193.672749588</v>
       </c>
       <c r="AB50">
-        <v>-117765.0</v>
+        <v>-108888.34929037</v>
       </c>
       <c r="AC50" s="2">
-        <v>-0.066438778135072</v>
+        <v>-0.058061187975669</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4763,25 +4769,25 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>85776.397134272</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>90413.040024547</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>767350.93131817</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-911399.60059978</v>
+        <v>-911399.6005998</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
-        <v>0</v>
+        <v>18870.80736954</v>
       </c>
       <c r="P51" s="6">
         <v>3464992.0</v>
@@ -4797,29 +4803,29 @@
         <v>11118.224</v>
       </c>
       <c r="U51" s="6">
-        <v>-284648.21249064</v>
+        <v>-441966.84227993</v>
       </c>
       <c r="V51" s="1">
-        <v>3464992.0</v>
+        <v>2697641.0686818</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
         <v>1822799.2011996</v>
       </c>
       <c r="Y51" s="1">
-        <v>9113996.0059978</v>
+        <v>9113996.005998</v>
       </c>
       <c r="Z51" s="1">
-        <v>9113996.0059978</v>
+        <v>8346645.0746798</v>
       </c>
       <c r="AA51">
-        <v>0.0</v>
+        <v>90413.040024547</v>
       </c>
       <c r="AB51">
-        <v>-125896.0</v>
+        <v>-102388.50812103</v>
       </c>
       <c r="AC51" s="2">
-        <v>-0.064448584716681</v>
+        <v>-0.049637691297431</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4831,7 +4837,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>2005079.1213195</v>
+        <v>2005079.1213196</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -4839,17 +4845,17 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>76735.093131817</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>99454.344027001</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>667896.58729117</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
@@ -4857,7 +4863,7 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
-        <v>0</v>
+        <v>16881.720489</v>
       </c>
       <c r="P52" s="6">
         <v>4909892.0</v>
@@ -4873,29 +4879,29 @@
         <v>24713.546</v>
       </c>
       <c r="U52" s="6">
-        <v>-323896.5333397</v>
+        <v>-483204.25000951</v>
       </c>
       <c r="V52" s="1">
-        <v>4909892.0</v>
+        <v>4241995.4127088</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>2005079.1213195</v>
+        <v>2005079.1213196</v>
       </c>
       <c r="Y52" s="1">
         <v>10025395.606598</v>
       </c>
       <c r="Z52" s="1">
-        <v>10025395.606598</v>
+        <v>9357499.0193068</v>
       </c>
       <c r="AA52">
-        <v>0.0</v>
+        <v>99454.344027001</v>
       </c>
       <c r="AB52">
-        <v>-134476.0</v>
+        <v>-94874.882834736</v>
       </c>
       <c r="AC52" s="2">
-        <v>-0.062466014939695</v>
+        <v>-0.041811262239452</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4915,17 +4921,17 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
-        <v>0</v>
+        <v>66789.658729117</v>
       </c>
       <c r="J53" s="13">
-        <v>0</v>
+        <v>109399.7784297</v>
       </c>
       <c r="K53" s="13">
-        <v>0</v>
+        <v>558496.80886147</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
@@ -4933,7 +4939,7 @@
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
-        <v>0</v>
+        <v>14693.724920406</v>
       </c>
       <c r="P53" s="13">
         <v>5109074.0071429</v>
@@ -4949,10 +4955,10 @@
         <v>26547.108057143</v>
       </c>
       <c r="U53" s="13">
-        <v>-1456741.9108565</v>
+        <v>-1618237.623095</v>
       </c>
       <c r="V53" s="13">
-        <v>5109074.0071429</v>
+        <v>4550577.1982814</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4962,16 +4968,16 @@
         <v>0.0</v>
       </c>
       <c r="Z53" s="13">
-        <v>0.0</v>
+        <v>-558496.80886147</v>
       </c>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>109399.7784297</v>
       </c>
       <c r="AB53" s="3">
-        <v>-1262322.0</v>
+        <v>-1205018.0950198</v>
       </c>
       <c r="AC53" s="14">
-        <v>-8.3668052577955</v>
+        <v>-4.3824235198054</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4983,25 +4989,25 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>319153.66214286</v>
+        <v>319153.66214285</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>1554514.2830793</v>
+        <v>1554514.2830794</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>55849.680886147</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>120339.75627267</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>438157.0525888</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
@@ -5009,10 +5015,10 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
-        <v>0</v>
+        <v>12286.929794952</v>
       </c>
       <c r="P54" s="6">
-        <v>5299326.9457143</v>
+        <v>5299326.9457142</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
@@ -5025,10 +5031,10 @@
         <v>28333.581565714</v>
       </c>
       <c r="U54" s="6">
-        <v>-1599847.8646451</v>
+        <v>-1763750.372009</v>
       </c>
       <c r="V54" s="1">
-        <v>5299326.9457143</v>
+        <v>4861169.8931254</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -5038,16 +5044,16 @@
         <v>0.0</v>
       </c>
       <c r="Z54" s="1">
-        <v>0.0</v>
+        <v>-438157.0525888</v>
       </c>
       <c r="AA54">
-        <v>0.0</v>
+        <v>120339.75627267</v>
       </c>
       <c r="AB54">
-        <v>-1401321.0</v>
+        <v>-1324543.6284234</v>
       </c>
       <c r="AC54" s="2">
-        <v>-9.1473766285446</v>
+        <v>-4.6341808527331</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -5067,17 +5073,17 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>43815.70525888</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>132373.73189994</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>305783.32068886</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
@@ -5085,26 +5091,26 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
-        <v>0</v>
+        <v>9639.4551569536</v>
       </c>
       <c r="P55" s="6">
         <v>5476840.3119286</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>4704488.4495429</v>
+        <v>4704488.4495428</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>30044.884495429</v>
+        <v>30044.884495428</v>
       </c>
       <c r="U55" s="6">
-        <v>-1757010.5958827</v>
+        <v>-1923560.5778846</v>
       </c>
       <c r="V55" s="1">
-        <v>5476840.3119286</v>
+        <v>5171056.9912397</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -5114,16 +5120,16 @@
         <v>0.0</v>
       </c>
       <c r="Z55" s="1">
-        <v>0.0</v>
+        <v>-305783.32068886</v>
       </c>
       <c r="AA55">
-        <v>0.0</v>
+        <v>132373.73189994</v>
       </c>
       <c r="AB55">
-        <v>-1555496.0</v>
+        <v>-1457298.1151674</v>
       </c>
       <c r="AC55" s="2">
-        <v>-10.069866311937</v>
+        <v>-4.9152746191314</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -5135,25 +5141,25 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>386175.93119286</v>
+        <v>386175.93119285</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>1880962.282526</v>
+        <v>1880962.2825261</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>30578.332068886</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>145611.10508993</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>160172.21559893</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
@@ -5161,26 +5167,26 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
-        <v>0</v>
+        <v>6727.2330551549</v>
       </c>
       <c r="P56" s="6">
-        <v>5637132.3119286</v>
+        <v>5637132.3119285</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>4864780.4495429</v>
+        <v>4864780.4495428</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>31647.804495429</v>
+        <v>31647.804495428</v>
       </c>
       <c r="U56" s="6">
-        <v>-1929610.0870214</v>
+        <v>-2099072.2911252</v>
       </c>
       <c r="V56" s="1">
-        <v>5637132.3119286</v>
+        <v>5476960.0963296</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -5190,16 +5196,16 @@
         <v>0.0</v>
       </c>
       <c r="Z56" s="1">
-        <v>0.0</v>
+        <v>-160172.21559893</v>
       </c>
       <c r="AA56">
-        <v>0.0</v>
+        <v>145611.10508993</v>
       </c>
       <c r="AB56">
-        <v>-1726493.0</v>
+        <v>-1604732.7505857</v>
       </c>
       <c r="AC56" s="2">
-        <v>-11.176855291493</v>
+        <v>-5.2304015336827</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -5219,17 +5225,17 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0</v>
+        <v>176189.43715882</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
-        <v>0</v>
+        <v>16017.221559893</v>
       </c>
       <c r="J57" s="13">
-        <v>0</v>
+        <v>160172.21559893</v>
       </c>
       <c r="K57" s="13">
-        <v>0</v>
+        <v>2.9103830456734E-11</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
@@ -5237,7 +5243,7 @@
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
-        <v>0</v>
+        <v>3523.7887431764</v>
       </c>
       <c r="P57" s="13">
         <v>5774957.7188093</v>
@@ -5253,7 +5259,7 @@
         <v>33103.293750474</v>
       </c>
       <c r="U57" s="13">
-        <v>-2029161.8045291</v>
+        <v>-2201827.4529448</v>
       </c>
       <c r="V57" s="13">
         <v>5774957.7188093</v>
@@ -5269,13 +5275,13 @@
         <v>900000.0</v>
       </c>
       <c r="AA57" s="3">
-        <v>180000.0</v>
+        <v>340172.21559893</v>
       </c>
       <c r="AB57" s="3">
-        <v>-1826133.0</v>
+        <v>-1678453.8495459</v>
       </c>
       <c r="AC57" s="14">
-        <v>-5.4851072518481</v>
+        <v>-3.3797434555914</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -5316,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>5884196.0139469</v>
+        <v>5884196.0139468</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
@@ -5329,10 +5335,10 @@
         <v>34365.594111575</v>
       </c>
       <c r="U58" s="6">
-        <v>-2228329.955968</v>
+        <v>-2228329.9559681</v>
       </c>
       <c r="V58" s="1">
-        <v>5884196.0139469</v>
+        <v>5884196.0139468</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -5367,7 +5373,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>2503560.7980421</v>
+        <v>2503560.7980422</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -5392,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>5957729.1509239</v>
+        <v>5957729.1509238</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
@@ -5405,10 +5411,10 @@
         <v>35381.289207391</v>
       </c>
       <c r="U59" s="6">
-        <v>-2447042.0872495</v>
+        <v>-2447042.0872496</v>
       </c>
       <c r="V59" s="1">
-        <v>5957729.1509239</v>
+        <v>5957729.1509238</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -5443,7 +5449,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>2753916.8778463</v>
+        <v>2753916.8778465</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -5468,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>5987304.0851568</v>
+        <v>5987304.0851567</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
@@ -5481,10 +5487,10 @@
         <v>36088.238681254</v>
       </c>
       <c r="U60" s="6">
-        <v>-2687215.1165276</v>
+        <v>-2687215.1165277</v>
       </c>
       <c r="V60" s="1">
-        <v>5987304.0851568</v>
+        <v>5987304.0851567</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -5503,7 +5509,7 @@
         <v>-2498430.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>-6.657579251056</v>
+        <v>-6.6575792510561</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -5515,11 +5521,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>885478.19894541</v>
+        <v>885478.1989454</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>3029308.565631</v>
+        <v>3029308.5656311</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5557,7 +5563,7 @@
         <v>36414.357957816</v>
       </c>
       <c r="U61" s="6">
-        <v>-2950953.9235888</v>
+        <v>-2950953.923589</v>
       </c>
       <c r="V61" s="1">
         <v>5963375.994727</v>
@@ -5591,11 +5597,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>974026.01883995</v>
+        <v>974026.01883994</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>3332239.4221941</v>
+        <v>3332239.4221943</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5633,7 +5639,7 @@
         <v>36276.265002878</v>
       </c>
       <c r="U62" s="6">
-        <v>-3240569.7871969</v>
+        <v>-3240569.7871972</v>
       </c>
       <c r="V62" s="1">
         <v>5874933.8753598</v>
@@ -5671,7 +5677,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>3665463.3644135</v>
+        <v>3665463.3644137</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5700,16 +5706,16 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>5257769.3377375</v>
+        <v>5257769.3377374</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>35577.693377375</v>
+        <v>35577.693377374</v>
       </c>
       <c r="U63" s="6">
-        <v>-3558600.5677908</v>
+        <v>-3558600.5677911</v>
       </c>
       <c r="V63" s="1">
         <v>5709297.9221718</v>
@@ -5731,7 +5737,7 @@
         <v>-3415717.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>-8.3475758767014</v>
+        <v>-8.3475758767015</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5747,7 +5753,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>4032009.7008548</v>
+        <v>4032009.7008551</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5785,7 +5791,7 @@
         <v>34207.808476741</v>
       </c>
       <c r="U64" s="6">
-        <v>-3907832.9703316</v>
+        <v>-3907832.9703318</v>
       </c>
       <c r="V64" s="1">
         <v>5451901.8095927</v>
@@ -5807,7 +5813,7 @@
         <v>-3790400.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>-9.089834942689</v>
+        <v>-9.0898349426891</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5819,11 +5825,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>1296428.631076</v>
+        <v>1296428.6310759</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>4435210.6709403</v>
+        <v>4435210.6709406</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5861,7 +5867,7 @@
         <v>32039.211162208</v>
       </c>
       <c r="U65" s="6">
-        <v>-4291326.8892025</v>
+        <v>-4291326.8892028</v>
       </c>
       <c r="V65" s="1">
         <v>5086037.645276</v>
@@ -5895,11 +5901,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>1426071.4941836</v>
+        <v>1426071.4941835</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>4878731.7380343</v>
+        <v>4878731.7380346</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5937,7 +5943,7 @@
         <v>28925.76</v>
       </c>
       <c r="U66" s="6">
-        <v>-4712442.2058443</v>
+        <v>-4712442.2058446</v>
       </c>
       <c r="V66" s="1">
         <v>4592576.0</v>
@@ -5975,7 +5981,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>5366604.9118378</v>
+        <v>5366604.9118381</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -6013,7 +6019,7 @@
         <v>33514.52</v>
       </c>
       <c r="U67" s="6">
-        <v>-5183682.6104288</v>
+        <v>-5183682.6104291</v>
       </c>
       <c r="V67" s="1">
         <v>5051452.0</v>
@@ -6051,7 +6057,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>5903265.4030215</v>
+        <v>5903265.4030219</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -6089,7 +6095,7 @@
         <v>38562.54</v>
       </c>
       <c r="U68" s="6">
-        <v>-5702047.4394716</v>
+        <v>-5702047.439472</v>
       </c>
       <c r="V68" s="1">
         <v>5556254.0</v>
@@ -6127,7 +6133,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>6493591.9433237</v>
+        <v>6493591.9433241</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -6165,7 +6171,7 @@
         <v>44115.71</v>
       </c>
       <c r="U69" s="6">
-        <v>-6272249.0994188</v>
+        <v>-6272249.0994192</v>
       </c>
       <c r="V69" s="1">
         <v>6111571.0</v>
@@ -6203,7 +6209,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>7142951.1376561</v>
+        <v>7142951.1376566</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -6241,7 +6247,7 @@
         <v>50224.5</v>
       </c>
       <c r="U70" s="6">
-        <v>-6899471.2283607</v>
+        <v>-6899471.2283612</v>
       </c>
       <c r="V70" s="1">
         <v>6722450.0</v>
@@ -6275,11 +6281,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>683549.70044983</v>
+        <v>683549.70044984</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>7857246.2514217</v>
+        <v>7857246.2514223</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -6317,14 +6323,14 @@
         <v>56944.45</v>
       </c>
       <c r="U71" s="6">
-        <v>-7589415.8511967</v>
+        <v>-7589415.8511974</v>
       </c>
       <c r="V71" s="1">
         <v>7394445.0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>683549.70044983</v>
+        <v>683549.70044984</v>
       </c>
       <c r="Y71" s="1">
         <v>3417748.5022492</v>
@@ -6355,7 +6361,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>8642970.8765638</v>
+        <v>8642970.8765645</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -6393,7 +6399,7 @@
         <v>64336.64</v>
       </c>
       <c r="U72" s="5">
-        <v>-8348355.1813164</v>
+        <v>-8348355.1813171</v>
       </c>
       <c r="V72" s="5">
         <v>8133664.0</v>
@@ -6415,7 +6421,7 @@
         <v>-8267019.0</v>
       </c>
       <c r="AC72" s="16">
-        <v>-10.994770114355</v>
+        <v>-10.994770114354</v>
       </c>
       <c r="AD72" s="15"/>
     </row>
@@ -6977,7 +6983,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -7045,7 +7051,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -7113,7 +7119,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -7181,7 +7187,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -7249,7 +7255,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -7317,7 +7323,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -7385,7 +7391,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -7453,7 +7459,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -7521,7 +7527,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -7589,7 +7595,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -7657,7 +7663,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -7725,7 +7731,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7793,7 +7799,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7861,7 +7867,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7929,7 +7935,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7997,7 +8003,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -8065,7 +8071,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -8133,7 +8139,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -8201,7 +8207,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -8269,7 +8275,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -8337,7 +8343,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -8405,7 +8411,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -8473,7 +8479,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -8541,7 +8547,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -8609,7 +8615,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -8677,7 +8683,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -8745,7 +8751,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8813,7 +8819,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8881,7 +8887,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8949,7 +8955,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -9021,7 +9027,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -9093,7 +9099,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -9165,7 +9171,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -9237,7 +9243,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -9309,7 +9315,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -9381,7 +9387,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -9453,7 +9459,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -9525,7 +9531,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -9597,7 +9603,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -9669,7 +9675,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -9741,7 +9747,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -9813,7 +9819,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9844,7 +9850,7 @@
         <v>0.5</v>
       </c>
       <c r="M49" s="1">
-        <v>-753222.81041304</v>
+        <v>-753222.81041305</v>
       </c>
       <c r="N49" s="2">
         <v>0.5</v>
@@ -9864,7 +9870,7 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>188305.70260326</v>
+        <v>188305.70260327</v>
       </c>
       <c r="V49" s="1">
         <v>0.0</v>
@@ -9874,7 +9880,7 @@
         <v>1506445.6208261</v>
       </c>
       <c r="Y49" s="1">
-        <v>7532228.1041304</v>
+        <v>7532228.1041305</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
@@ -9885,7 +9891,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9916,7 +9922,7 @@
         <v>0.5</v>
       </c>
       <c r="M50" s="1">
-        <v>-828545.09145434</v>
+        <v>-828545.09145435</v>
       </c>
       <c r="N50" s="2">
         <v>0.5</v>
@@ -9946,7 +9952,7 @@
         <v>1657090.1829087</v>
       </c>
       <c r="Y50" s="1">
-        <v>8285450.9145434</v>
+        <v>8285450.9145435</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
@@ -9957,7 +9963,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9974,7 +9980,7 @@
         <v>0.1</v>
       </c>
       <c r="E51" s="5">
-        <v>683549.70044983</v>
+        <v>683549.70044984</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
@@ -9988,7 +9994,7 @@
         <v>0.5</v>
       </c>
       <c r="M51" s="1">
-        <v>-911399.60059978</v>
+        <v>-911399.6005998</v>
       </c>
       <c r="N51" s="2">
         <v>0.5</v>
@@ -10008,7 +10014,7 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>227849.90014994</v>
+        <v>227849.90014996</v>
       </c>
       <c r="V51" s="1">
         <v>0.0</v>
@@ -10018,7 +10024,7 @@
         <v>1822799.2011996</v>
       </c>
       <c r="Y51" s="1">
-        <v>9113996.0059978</v>
+        <v>9113996.005998</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
@@ -10029,7 +10035,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -10040,7 +10046,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>2005079.1213195</v>
+        <v>2005079.1213196</v>
       </c>
       <c r="D52" s="2">
         <v>0.1</v>
@@ -10080,14 +10086,14 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>250634.89016494</v>
+        <v>250634.89016498</v>
       </c>
       <c r="V52" s="1">
         <v>0.0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>2005079.1213195</v>
+        <v>2005079.1213196</v>
       </c>
       <c r="Y52" s="1">
         <v>10025395.606598</v>
@@ -10101,7 +10107,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -10171,7 +10177,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -10182,7 +10188,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>319153.66214286</v>
+        <v>319153.66214285</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -10241,7 +10247,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -10311,7 +10317,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -10322,7 +10328,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>386175.93119286</v>
+        <v>386175.93119285</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -10381,7 +10387,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -10451,7 +10457,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -10521,7 +10527,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -10536,7 +10542,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>1465249.4889631</v>
+        <v>1465249.4889632</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -10570,7 +10576,7 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-1465249.4889631</v>
+        <v>-1465249.4889632</v>
       </c>
       <c r="V59" s="1">
         <v>0.0</v>
@@ -10591,7 +10597,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -10606,7 +10612,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>1611774.4378594</v>
+        <v>1611774.4378595</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -10640,7 +10646,7 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-1611774.4378594</v>
+        <v>-1611774.4378595</v>
       </c>
       <c r="V60" s="1">
         <v>0.0</v>
@@ -10661,7 +10667,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -10672,11 +10678,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>621940.19894541</v>
+        <v>621940.1989454</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>1772951.8816454</v>
+        <v>1772951.8816455</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -10710,7 +10716,7 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-1772951.8816454</v>
+        <v>-1772951.8816455</v>
       </c>
       <c r="V61" s="1">
         <v>0.0</v>
@@ -10731,7 +10737,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -10742,11 +10748,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>684134.21883995</v>
+        <v>684134.21883994</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>1950247.0698099</v>
+        <v>1950247.0698101</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -10780,7 +10786,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-1950247.0698099</v>
+        <v>-1950247.0698101</v>
       </c>
       <c r="V62" s="1">
         <v>0.0</v>
@@ -10801,7 +10807,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10812,11 +10818,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>752547.64072394</v>
+        <v>752547.64072393</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>2145271.7767909</v>
+        <v>2145271.7767911</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -10850,7 +10856,7 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-2145271.7767909</v>
+        <v>-2145271.7767911</v>
       </c>
       <c r="V63" s="1">
         <v>0.0</v>
@@ -10871,7 +10877,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10882,11 +10888,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>827802.40479634</v>
+        <v>827802.40479633</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>2359798.95447</v>
+        <v>2359798.9544702</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
@@ -10920,7 +10926,7 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-2359798.95447</v>
+        <v>-2359798.9544702</v>
       </c>
       <c r="V64" s="1">
         <v>0.0</v>
@@ -10941,7 +10947,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10952,11 +10958,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>910582.64527597</v>
+        <v>910582.64527595</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>2595778.849917</v>
+        <v>2595778.8499172</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
@@ -10990,7 +10996,7 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-2595778.849917</v>
+        <v>-2595778.8499172</v>
       </c>
       <c r="V65" s="1">
         <v>0.0</v>
@@ -11011,7 +11017,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -11022,11 +11028,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>1001640.9098036</v>
+        <v>1001640.9098035</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>2855356.7349087</v>
+        <v>2855356.7349089</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
@@ -11060,7 +11066,7 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-2855356.7349087</v>
+        <v>-2855356.7349089</v>
       </c>
       <c r="V66" s="1">
         <v>0.0</v>
@@ -11081,7 +11087,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -11096,7 +11102,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>3140892.4083996</v>
+        <v>3140892.4083998</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
@@ -11130,7 +11136,7 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-3140892.4083996</v>
+        <v>-3140892.4083998</v>
       </c>
       <c r="V67" s="1">
         <v>0.0</v>
@@ -11151,7 +11157,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -11166,7 +11172,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>3454981.6492395</v>
+        <v>3454981.6492398</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -11200,7 +11206,7 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-3454981.6492395</v>
+        <v>-3454981.6492398</v>
       </c>
       <c r="V68" s="1">
         <v>0.0</v>
@@ -11221,7 +11227,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -11236,7 +11242,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>3800479.8141635</v>
+        <v>3800479.8141638</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -11270,7 +11276,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-3800479.8141635</v>
+        <v>-3800479.8141638</v>
       </c>
       <c r="V69" s="1">
         <v>0.0</v>
@@ -11291,7 +11297,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -11306,7 +11312,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>4180527.7955798</v>
+        <v>4180527.7955802</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -11340,7 +11346,7 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-4180527.7955798</v>
+        <v>-4180527.7955802</v>
       </c>
       <c r="V70" s="1">
         <v>0.0</v>
@@ -11361,7 +11367,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -11376,7 +11382,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>4598580.5751378</v>
+        <v>4598580.5751382</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -11410,7 +11416,7 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-4598580.5751378</v>
+        <v>-4598580.5751382</v>
       </c>
       <c r="V71" s="1">
         <v>0.0</v>
@@ -11431,7 +11437,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -11446,7 +11452,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>5058438.6326516</v>
+        <v>5058438.632652</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
@@ -11480,7 +11486,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-5058438.6326516</v>
+        <v>-5058438.632652</v>
       </c>
       <c r="V72" s="5">
         <v>0.0</v>
@@ -11501,7 +11507,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -11787,7 +11793,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -11795,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -11807,7 +11813,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -11819,7 +11825,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -12054,7 +12060,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -12118,7 +12124,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -12182,7 +12188,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -12246,7 +12252,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -12310,7 +12316,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -12374,7 +12380,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -12438,7 +12444,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -12502,7 +12508,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -12566,7 +12572,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -12630,7 +12636,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -12694,7 +12700,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -12758,7 +12764,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -12822,7 +12828,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -12886,7 +12892,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -12950,7 +12956,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -13014,7 +13020,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -13078,7 +13084,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -13142,7 +13148,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -13206,7 +13212,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -13270,7 +13276,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -13334,7 +13340,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -13398,7 +13404,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -13462,7 +13468,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -13526,7 +13532,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -13590,7 +13596,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -13654,7 +13660,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -13718,7 +13724,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -13782,7 +13788,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -13846,7 +13852,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -13910,7 +13916,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -13974,7 +13980,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -14038,7 +14044,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -14102,7 +14108,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -14166,7 +14172,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -14230,7 +14236,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -14294,7 +14300,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -14358,7 +14364,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -14422,7 +14428,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -14486,7 +14492,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -14550,7 +14556,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -14614,7 +14620,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -14678,7 +14684,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -14742,7 +14748,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -14806,7 +14812,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -14870,7 +14876,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -14938,7 +14944,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -15006,7 +15012,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -15074,7 +15080,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -15142,7 +15148,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -15210,7 +15216,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -15278,7 +15284,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -15346,7 +15352,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -15414,7 +15420,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -15482,7 +15488,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -15550,7 +15556,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -15618,7 +15624,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -15686,7 +15692,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -15754,7 +15760,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -15822,7 +15828,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15890,7 +15896,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15958,7 +15964,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -16026,7 +16032,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -16094,7 +16100,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -16162,7 +16168,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -16230,7 +16236,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -16298,7 +16304,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -16584,7 +16590,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -16592,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -16604,7 +16610,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -16616,7 +16622,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -16859,7 +16865,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -16927,7 +16933,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -16995,7 +17001,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -17063,7 +17069,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -17131,7 +17137,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -17199,7 +17205,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -17267,7 +17273,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -17335,7 +17341,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -17403,7 +17409,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -17471,7 +17477,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -17539,7 +17545,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -17607,7 +17613,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -17675,7 +17681,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -17743,7 +17749,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -17811,7 +17817,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -17879,7 +17885,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -17947,7 +17953,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -18015,7 +18021,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -18083,7 +18089,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -18151,7 +18157,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -18219,7 +18225,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -18287,7 +18293,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -18355,7 +18361,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -18423,7 +18429,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -18491,7 +18497,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -18559,7 +18565,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -18627,7 +18633,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -18695,7 +18701,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -18763,7 +18769,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -18831,7 +18837,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -18899,7 +18905,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -18967,7 +18973,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -19035,7 +19041,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -19103,7 +19109,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -19171,7 +19177,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -19239,7 +19245,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -19307,7 +19313,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -19375,7 +19381,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -19443,7 +19449,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -19511,7 +19517,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -19579,7 +19585,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -19647,7 +19653,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -19715,7 +19721,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -19783,7 +19789,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -19851,7 +19857,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -19919,7 +19925,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -19987,7 +19993,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -20055,7 +20061,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -20123,7 +20129,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -20191,7 +20197,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -20263,7 +20269,7 @@
         <v>1.0</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -20335,7 +20341,7 @@
         <v>1.0</v>
       </c>
       <c r="AD58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -20407,7 +20413,7 @@
         <v>1.0</v>
       </c>
       <c r="AD59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -20479,7 +20485,7 @@
         <v>1.0</v>
       </c>
       <c r="AD60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -20551,7 +20557,7 @@
         <v>1.0</v>
       </c>
       <c r="AD61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -20623,7 +20629,7 @@
         <v>1.0</v>
       </c>
       <c r="AD62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -20695,7 +20701,7 @@
         <v>1.0</v>
       </c>
       <c r="AD63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -20767,7 +20773,7 @@
         <v>1.0</v>
       </c>
       <c r="AD64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -20839,7 +20845,7 @@
         <v>1.0</v>
       </c>
       <c r="AD65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -20911,7 +20917,7 @@
         <v>1.0</v>
       </c>
       <c r="AD66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -20983,7 +20989,7 @@
         <v>1.0</v>
       </c>
       <c r="AD67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -21055,7 +21061,7 @@
         <v>1.0</v>
       </c>
       <c r="AD68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -21127,7 +21133,7 @@
         <v>1.0</v>
       </c>
       <c r="AD69" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -21199,7 +21205,7 @@
         <v>1.0</v>
       </c>
       <c r="AD70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -21210,7 +21216,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>683549.70044983</v>
+        <v>683549.70044984</v>
       </c>
       <c r="D71" s="2">
         <v>0.1</v>
@@ -21255,7 +21261,7 @@
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>683549.70044983</v>
+        <v>683549.70044984</v>
       </c>
       <c r="Y71" s="1">
         <v>3417748.5022492</v>
@@ -21271,7 +21277,7 @@
         <v>1.0</v>
       </c>
       <c r="AD71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -21343,7 +21349,7 @@
         <v>1.0</v>
       </c>
       <c r="AD72" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -21629,7 +21635,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -21637,7 +21643,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -21649,7 +21655,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -21661,7 +21667,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -21896,7 +21902,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -21960,7 +21966,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -22024,7 +22030,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -22088,7 +22094,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -22152,7 +22158,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -22216,7 +22222,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -22280,7 +22286,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -22344,7 +22350,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -22408,7 +22414,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -22472,7 +22478,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -22536,7 +22542,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -22600,7 +22606,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -22664,7 +22670,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -22728,7 +22734,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -22792,7 +22798,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -22856,7 +22862,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -22920,7 +22926,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -22984,7 +22990,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -23048,7 +23054,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -23112,7 +23118,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -23176,7 +23182,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -23240,7 +23246,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -23304,7 +23310,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -23368,7 +23374,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -23432,7 +23438,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -23496,7 +23502,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -23560,7 +23566,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -23624,7 +23630,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -23688,7 +23694,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -23752,7 +23758,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -23820,7 +23826,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -23888,7 +23894,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -23956,7 +23962,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -24024,7 +24030,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -24092,7 +24098,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -24160,7 +24166,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -24228,7 +24234,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -24296,7 +24302,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -24364,7 +24370,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -24432,7 +24438,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -24500,7 +24506,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -24568,7 +24574,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -24636,7 +24642,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -24704,7 +24710,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -24772,7 +24778,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -24840,7 +24846,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -24908,7 +24914,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -24940,7 +24946,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>3829843.9457143</v>
+        <v>3829843.9457142</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
@@ -24958,7 +24964,7 @@
         <v>-30638.751565714</v>
       </c>
       <c r="V54" s="1">
-        <v>3829843.9457143</v>
+        <v>3829843.9457142</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -24976,7 +24982,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -25014,16 +25020,16 @@
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>3089407.4495429</v>
+        <v>3089407.4495428</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>30894.074495429</v>
+        <v>30894.074495428</v>
       </c>
       <c r="U55" s="6">
-        <v>-30894.074495429</v>
+        <v>-30894.074495428</v>
       </c>
       <c r="V55" s="1">
         <v>3861759.3119286</v>
@@ -25044,7 +25050,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -25076,25 +25082,25 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>3861759.3119286</v>
+        <v>3861759.3119285</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>3089407.4495429</v>
+        <v>3089407.4495428</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>30894.074495429</v>
+        <v>30894.074495428</v>
       </c>
       <c r="U56" s="6">
-        <v>-30894.074495429</v>
+        <v>-30894.074495428</v>
       </c>
       <c r="V56" s="1">
-        <v>3861759.3119286</v>
+        <v>3861759.3119285</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -25112,7 +25118,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -25180,7 +25186,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -25212,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>3738183.0139469</v>
+        <v>3738183.0139468</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
@@ -25230,7 +25236,7 @@
         <v>-29905.464111575</v>
       </c>
       <c r="V58" s="1">
-        <v>3738183.0139469</v>
+        <v>3738183.0139468</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -25248,7 +25254,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -25280,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>3598001.1509239</v>
+        <v>3598001.1509238</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
@@ -25298,7 +25304,7 @@
         <v>-28784.009207391</v>
       </c>
       <c r="V59" s="1">
-        <v>3598001.1509239</v>
+        <v>3598001.1509238</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -25316,7 +25322,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -25348,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>3392401.0851568</v>
+        <v>3392401.0851567</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
@@ -25366,7 +25372,7 @@
         <v>-27139.208681254</v>
       </c>
       <c r="V60" s="1">
-        <v>3392401.0851568</v>
+        <v>3392401.0851567</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -25384,7 +25390,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -25452,7 +25458,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -25520,7 +25526,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -25558,16 +25564,16 @@
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>1806114.3377375</v>
+        <v>1806114.3377374</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>18061.143377375</v>
+        <v>18061.143377374</v>
       </c>
       <c r="U63" s="6">
-        <v>-18061.143377375</v>
+        <v>-18061.143377374</v>
       </c>
       <c r="V63" s="1">
         <v>2257642.9221718</v>
@@ -25588,7 +25594,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -25656,7 +25662,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -25688,25 +25694,25 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>910582.64527597</v>
+        <v>910582.64527595</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>728466.11622078</v>
+        <v>728466.11622076</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>7284.6611622078</v>
+        <v>7284.6611622076</v>
       </c>
       <c r="U65" s="6">
-        <v>-7284.6611622078</v>
+        <v>-7284.6611622076</v>
       </c>
       <c r="V65" s="1">
-        <v>910582.64527597</v>
+        <v>910582.64527595</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -25724,7 +25730,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -25790,7 +25796,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -25856,7 +25862,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -25922,7 +25928,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -25988,7 +25994,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -26054,7 +26060,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -26120,7 +26126,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -26186,7 +26192,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -26448,11 +26454,11 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
@@ -26472,7 +26478,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -26480,7 +26486,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -26492,7 +26498,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -26504,7 +26510,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -26739,7 +26745,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -26803,7 +26809,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -26867,7 +26873,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -26931,7 +26937,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -26995,7 +27001,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -27059,7 +27065,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -27123,7 +27129,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -27187,7 +27193,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -27251,7 +27257,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -27315,7 +27321,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -27379,7 +27385,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -27443,7 +27449,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -27507,7 +27513,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -27571,7 +27577,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -27635,7 +27641,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -27699,7 +27705,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -27763,7 +27769,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -27827,7 +27833,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -27891,7 +27897,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -27955,7 +27961,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -28019,7 +28025,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -28083,7 +28089,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -28147,7 +28153,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -28211,7 +28217,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -28275,7 +28281,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -28339,7 +28345,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -28403,7 +28409,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -28467,7 +28473,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -28531,7 +28537,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -28595,7 +28601,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -28659,7 +28665,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -28679,18 +28685,28 @@
       <c r="F38" s="9">
         <v>0.1</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="G38" s="8">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>150000.0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>26189.437158819</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1473810.5628412</v>
+      </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
         <v>0.0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
-        <v>0</v>
+        <v>33000.0</v>
       </c>
       <c r="P38" s="8">
         <v>0.0</v>
@@ -28706,10 +28722,10 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>-87600.0</v>
+        <v>-230789.43715882</v>
       </c>
       <c r="V38" s="8">
-        <v>0.0</v>
+        <v>-1473810.5628412</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -28720,14 +28736,14 @@
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>26189.437158819</v>
       </c>
       <c r="AB38" s="7">
-        <v>-87600.0</v>
+        <v>-178410.56284118</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -28747,18 +28763,28 @@
       <c r="F39" s="2">
         <v>0.1</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="G39" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>147381.05628412</v>
+      </c>
+      <c r="J39" s="1">
+        <v>28808.3808747</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1445002.1819665</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
         <v>0.0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
-        <v>0</v>
+        <v>32423.832382506</v>
       </c>
       <c r="P39" s="6">
         <v>0.0</v>
@@ -28774,10 +28800,10 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-96360.0</v>
+        <v>-240125.60477631</v>
       </c>
       <c r="V39" s="1">
-        <v>0.0</v>
+        <v>-1445002.1819665</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -28788,14 +28814,14 @@
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
-        <v>0.0</v>
+        <v>28808.3808747</v>
       </c>
       <c r="AB39">
-        <v>-96360.0</v>
+        <v>-182508.84302691</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -28815,18 +28841,28 @@
       <c r="F40" s="12">
         <v>0.1</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
+      <c r="G40" s="11">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I40" s="11">
+        <v>144500.21819665</v>
+      </c>
+      <c r="J40" s="11">
+        <v>31689.218962171</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1413312.9630043</v>
+      </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
         <v>0.0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
-        <v>0</v>
+        <v>31790.048003263</v>
       </c>
       <c r="P40" s="11">
         <v>0.0</v>
@@ -28842,10 +28878,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-105996.0</v>
+        <v>-250395.38915556</v>
       </c>
       <c r="V40" s="11">
-        <v>0.0</v>
+        <v>-1413312.9630043</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -28856,14 +28892,14 @@
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>31689.218962171</v>
       </c>
       <c r="AB40" s="10">
-        <v>-105996.0</v>
+        <v>-187016.95123121</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -28883,18 +28919,28 @@
       <c r="F41" s="2">
         <v>0.1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="G41" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>141331.29630043</v>
+      </c>
+      <c r="J41" s="1">
+        <v>34858.140858388</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1378454.8221459</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
         <v>0.0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
-        <v>0</v>
+        <v>31092.885186095</v>
       </c>
       <c r="P41" s="6">
         <v>0.0</v>
@@ -28910,10 +28956,10 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-116595.6</v>
+        <v>-261692.15197272</v>
       </c>
       <c r="V41" s="1">
-        <v>0.0</v>
+        <v>-1378454.8221459</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -28924,14 +28970,14 @@
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
-        <v>0.0</v>
+        <v>34858.140858388</v>
       </c>
       <c r="AB41">
-        <v>-116596.0</v>
+        <v>-191975.87025595</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -28951,18 +28997,28 @@
       <c r="F42" s="2">
         <v>0.1</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="G42" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>137845.48221459</v>
+      </c>
+      <c r="J42" s="1">
+        <v>38343.954944226</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1340110.8672017</v>
+      </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
         <v>0.0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
-        <v>0</v>
+        <v>30326.00608721</v>
       </c>
       <c r="P42" s="6">
         <v>0.0</v>
@@ -28978,10 +29034,10 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-128255.16</v>
+        <v>-274118.59107161</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>-1340110.8672017</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -28992,14 +29048,14 @@
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
-        <v>0.0</v>
+        <v>38343.954944226</v>
       </c>
       <c r="AB42">
-        <v>-128255.0</v>
+        <v>-197430.68118316</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -29019,18 +29075,28 @@
       <c r="F43" s="2">
         <v>0.1</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="G43" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>134011.08672017</v>
+      </c>
+      <c r="J43" s="1">
+        <v>42178.350438649</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1297932.516763</v>
+      </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
         <v>0.0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
-        <v>0</v>
+        <v>29482.439078437</v>
       </c>
       <c r="P43" s="6">
         <v>0.0</v>
@@ -29046,10 +29112,10 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-141080.676</v>
+        <v>-287787.67408038</v>
       </c>
       <c r="V43" s="1">
-        <v>0.0</v>
+        <v>-1297932.516763</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -29060,14 +29126,14 @@
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
-        <v>0.0</v>
+        <v>42178.350438649</v>
       </c>
       <c r="AB43">
-        <v>-141081.0</v>
+        <v>-203430.97320308</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -29087,18 +29153,28 @@
       <c r="F44" s="2">
         <v>0.1</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="G44" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>129793.2516763</v>
+      </c>
+      <c r="J44" s="1">
+        <v>46396.185482514</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1251536.3312805</v>
+      </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
         <v>0.0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
-        <v>0</v>
+        <v>28554.515368787</v>
       </c>
       <c r="P44" s="6">
         <v>0.0</v>
@@ -29114,10 +29190,10 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-155188.7436</v>
+        <v>-302823.66539003</v>
       </c>
       <c r="V44" s="1">
-        <v>0.0</v>
+        <v>-1251536.3312805</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -29128,14 +29204,14 @@
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
-        <v>0.0</v>
+        <v>46396.185482514</v>
       </c>
       <c r="AB44">
-        <v>-155189.0</v>
+        <v>-210031.294425</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -29155,18 +29231,28 @@
       <c r="F45" s="2">
         <v>0.1</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="G45" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>125153.63312805</v>
+      </c>
+      <c r="J45" s="1">
+        <v>51035.804030765</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1200500.5272498</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
         <v>0.0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
-        <v>0</v>
+        <v>27533.799288172</v>
       </c>
       <c r="P45" s="6">
         <v>0.0</v>
@@ -29182,10 +29268,10 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-170707.61796</v>
+        <v>-319363.25583065</v>
       </c>
       <c r="V45" s="1">
-        <v>0.0</v>
+        <v>-1200500.5272498</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -29196,14 +29282,14 @@
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
-        <v>0.0</v>
+        <v>51035.804030765</v>
       </c>
       <c r="AB45">
-        <v>-170708.0</v>
+        <v>-217291.64776912</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -29223,18 +29309,28 @@
       <c r="F46" s="2">
         <v>0.1</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="G46" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>120050.05272498</v>
+      </c>
+      <c r="J46" s="1">
+        <v>56139.384433842</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1144361.1428159</v>
+      </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
         <v>0.0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
-        <v>0</v>
+        <v>26411.011599495</v>
       </c>
       <c r="P46" s="6">
         <v>0.0</v>
@@ -29250,10 +29346,10 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-187778.379756</v>
+        <v>-337556.80531532</v>
       </c>
       <c r="V46" s="1">
-        <v>0.0</v>
+        <v>-1144361.1428159</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -29264,14 +29360,14 @@
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
-        <v>0.0</v>
+        <v>56139.384433842</v>
       </c>
       <c r="AB46">
-        <v>-187778.0</v>
+        <v>-225278.03644764</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -29291,18 +29387,28 @@
       <c r="F47" s="2">
         <v>0.1</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="G47" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>114436.11428159</v>
+      </c>
+      <c r="J47" s="1">
+        <v>61753.322877226</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1082607.8199387</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
         <v>0.0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
-        <v>0</v>
+        <v>25175.94514195</v>
       </c>
       <c r="P47" s="6">
         <v>0.0</v>
@@ -29318,10 +29424,10 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>-206556.2177316</v>
+        <v>-357569.70974847</v>
       </c>
       <c r="V47" s="1">
-        <v>0.0</v>
+        <v>-1082607.8199387</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -29332,14 +29438,14 @@
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
-        <v>0.0</v>
+        <v>61753.322877226</v>
       </c>
       <c r="AB47">
-        <v>-206556.0</v>
+        <v>-234063.06399402</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -29359,18 +29465,28 @@
       <c r="F48" s="2">
         <v>0.1</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="G48" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>108260.78199387</v>
+      </c>
+      <c r="J48" s="1">
+        <v>67928.655164949</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1014679.1647738</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
         <v>0.0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
-        <v>0</v>
+        <v>23817.372038651</v>
       </c>
       <c r="P48" s="6">
         <v>0.0</v>
@@ -29386,10 +29502,10 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>-227211.83950476</v>
+        <v>-379583.90462493</v>
       </c>
       <c r="V48" s="1">
-        <v>0.0</v>
+        <v>-1014679.1647738</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -29400,14 +29516,14 @@
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
-        <v>0.0</v>
+        <v>67928.655164949</v>
       </c>
       <c r="AB48">
-        <v>-227212.0</v>
+        <v>-243726.59429503</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -29427,18 +29543,28 @@
       <c r="F49" s="2">
         <v>0.1</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="G49" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>101467.91647738</v>
+      </c>
+      <c r="J49" s="1">
+        <v>74721.520681444</v>
+      </c>
+      <c r="K49" s="1">
+        <v>939957.64409231</v>
+      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
         <v>0.0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
-        <v>0</v>
+        <v>22322.941625023</v>
       </c>
       <c r="P49" s="6">
         <v>0.0</v>
@@ -29454,10 +29580,10 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>-249933.02345524</v>
+        <v>-403799.51898904</v>
       </c>
       <c r="V49" s="1">
-        <v>0.0</v>
+        <v>-939957.64409231</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -29468,14 +29594,14 @@
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
-        <v>0.0</v>
+        <v>74721.520681444</v>
       </c>
       <c r="AB49">
-        <v>-249933.0</v>
+        <v>-254356.47762615</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -29495,18 +29621,28 @@
       <c r="F50" s="2">
         <v>0.1</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>93995.764409231</v>
+      </c>
+      <c r="J50" s="1">
+        <v>82193.672749588</v>
+      </c>
+      <c r="K50" s="1">
+        <v>857763.97134272</v>
+      </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
         <v>0.0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
-        <v>0</v>
+        <v>20679.068170031</v>
       </c>
       <c r="P50" s="6">
         <v>0.0</v>
@@ -29522,10 +29658,10 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>-274926.32580076</v>
+        <v>-430436.69478955</v>
       </c>
       <c r="V50" s="1">
-        <v>0.0</v>
+        <v>-857763.97134272</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -29536,14 +29672,14 @@
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
-        <v>0.0</v>
+        <v>82193.672749588</v>
       </c>
       <c r="AB50">
-        <v>-274926.0</v>
+        <v>-266049.34929037</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -29563,18 +29699,28 @@
       <c r="F51" s="2">
         <v>0.1</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="G51" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>85776.397134272</v>
+      </c>
+      <c r="J51" s="1">
+        <v>90413.040024547</v>
+      </c>
+      <c r="K51" s="1">
+        <v>767350.93131817</v>
+      </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
         <v>0.0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
-        <v>0</v>
+        <v>18870.80736954</v>
       </c>
       <c r="P51" s="6">
         <v>0.0</v>
@@ -29590,10 +29736,10 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>-302418.95838084</v>
+        <v>-459737.58817012</v>
       </c>
       <c r="V51" s="1">
-        <v>0.0</v>
+        <v>-767350.93131817</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -29604,14 +29750,14 @@
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
-        <v>0.0</v>
+        <v>90413.040024547</v>
       </c>
       <c r="AB51">
-        <v>-302419.0</v>
+        <v>-278911.50812103</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -29631,18 +29777,28 @@
       <c r="F52" s="2">
         <v>0.1</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="G52" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>76735.093131817</v>
+      </c>
+      <c r="J52" s="1">
+        <v>99454.344027001</v>
+      </c>
+      <c r="K52" s="1">
+        <v>667896.58729117</v>
+      </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
         <v>0.0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
-        <v>0</v>
+        <v>16881.720489</v>
       </c>
       <c r="P52" s="6">
         <v>0.0</v>
@@ -29658,10 +29814,10 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>-332660.85421892</v>
+        <v>-491968.57088874</v>
       </c>
       <c r="V52" s="1">
-        <v>0.0</v>
+        <v>-667896.58729117</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -29672,14 +29828,14 @@
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
-        <v>0.0</v>
+        <v>99454.344027001</v>
       </c>
       <c r="AB52">
-        <v>-332661.0</v>
+        <v>-293059.88283474</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -29699,18 +29855,28 @@
       <c r="F53" s="14">
         <v>0.1</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
+      <c r="G53" s="13">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="13">
+        <v>66789.658729117</v>
+      </c>
+      <c r="J53" s="13">
+        <v>109399.7784297</v>
+      </c>
+      <c r="K53" s="13">
+        <v>558496.80886147</v>
+      </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
         <v>0.0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
-        <v>0</v>
+        <v>14693.724920406</v>
       </c>
       <c r="P53" s="13">
         <v>0.0</v>
@@ -29726,10 +29892,10 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-365926.93964081</v>
+        <v>-527422.65187922</v>
       </c>
       <c r="V53" s="13">
-        <v>0.0</v>
+        <v>-558496.80886147</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -29740,14 +29906,14 @@
       </c>
       <c r="Z53" s="13"/>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>109399.7784297</v>
       </c>
       <c r="AB53" s="3">
-        <v>-365927.0</v>
+        <v>-308623.09501982</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -29767,18 +29933,28 @@
       <c r="F54" s="2">
         <v>0.1</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="G54" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>55849.680886147</v>
+      </c>
+      <c r="J54" s="1">
+        <v>120339.75627267</v>
+      </c>
+      <c r="K54" s="1">
+        <v>438157.0525888</v>
+      </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
         <v>0.0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
-        <v>0</v>
+        <v>12286.929794952</v>
       </c>
       <c r="P54" s="6">
         <v>0.0</v>
@@ -29794,10 +29970,10 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-402519.63360489</v>
+        <v>-566422.14096876</v>
       </c>
       <c r="V54" s="1">
-        <v>0.0</v>
+        <v>-438157.0525888</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -29808,14 +29984,14 @@
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54">
-        <v>0.0</v>
+        <v>120339.75627267</v>
       </c>
       <c r="AB54">
-        <v>-402520.0</v>
+        <v>-325742.62842341</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -29835,18 +30011,28 @@
       <c r="F55" s="2">
         <v>0.1</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="G55" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>43815.70525888</v>
+      </c>
+      <c r="J55" s="1">
+        <v>132373.73189994</v>
+      </c>
+      <c r="K55" s="1">
+        <v>305783.32068886</v>
+      </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
         <v>0.0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
-        <v>0</v>
+        <v>9639.4551569536</v>
       </c>
       <c r="P55" s="6">
         <v>0.0</v>
@@ -29862,10 +30048,10 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-442771.59696538</v>
+        <v>-609321.57896725</v>
       </c>
       <c r="V55" s="1">
-        <v>0.0</v>
+        <v>-305783.32068886</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -29876,14 +30062,14 @@
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55">
-        <v>0.0</v>
+        <v>132373.73189994</v>
       </c>
       <c r="AB55">
-        <v>-442772.0</v>
+        <v>-344574.11516737</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -29903,18 +30089,28 @@
       <c r="F56" s="2">
         <v>0.1</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="G56" s="1">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>30578.332068886</v>
+      </c>
+      <c r="J56" s="1">
+        <v>145611.10508993</v>
+      </c>
+      <c r="K56" s="1">
+        <v>160172.21559893</v>
+      </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
         <v>0.0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
-        <v>0</v>
+        <v>6727.2330551549</v>
       </c>
       <c r="P56" s="6">
         <v>0.0</v>
@@ -29930,10 +30126,10 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-487048.75666192</v>
+        <v>-656510.96076558</v>
       </c>
       <c r="V56" s="1">
-        <v>0.0</v>
+        <v>-160172.21559893</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -29944,14 +30140,14 @@
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56">
-        <v>0.0</v>
+        <v>145611.10508993</v>
       </c>
       <c r="AB56">
-        <v>-487049.0</v>
+        <v>-365288.75058572</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -29971,18 +30167,28 @@
       <c r="F57" s="14">
         <v>0.1</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="G57" s="13">
+        <v>176189.43715882</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I57" s="13">
+        <v>16017.221559893</v>
+      </c>
+      <c r="J57" s="13">
+        <v>160172.21559893</v>
+      </c>
+      <c r="K57" s="13">
+        <v>2.9103830456734E-11</v>
+      </c>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
         <v>0.0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
-        <v>0</v>
+        <v>3523.7887431764</v>
       </c>
       <c r="P57" s="13">
         <v>0.0</v>
@@ -29998,10 +30204,10 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-535753.63232811</v>
+        <v>-708419.28074375</v>
       </c>
       <c r="V57" s="13">
-        <v>0.0</v>
+        <v>-2.9103830456734E-11</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -30012,14 +30218,14 @@
       </c>
       <c r="Z57" s="13"/>
       <c r="AA57" s="3">
-        <v>0.0</v>
+        <v>160172.21559893</v>
       </c>
       <c r="AB57" s="3">
-        <v>-535754.0</v>
+        <v>-388074.8495459</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -30087,7 +30293,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -30102,7 +30308,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>648261.89511702</v>
+        <v>648261.89511701</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -30134,7 +30340,7 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-648261.89511702</v>
+        <v>-648261.89511701</v>
       </c>
       <c r="V59" s="1">
         <v>0.0</v>
@@ -30155,7 +30361,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -30170,7 +30376,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>713088.08462872</v>
+        <v>713088.08462871</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -30202,7 +30408,7 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-713088.08462872</v>
+        <v>-713088.08462871</v>
       </c>
       <c r="V60" s="1">
         <v>0.0</v>
@@ -30223,7 +30429,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -30238,7 +30444,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>784396.89309159</v>
+        <v>784396.89309158</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -30270,7 +30476,7 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-784396.89309159</v>
+        <v>-784396.89309158</v>
       </c>
       <c r="V61" s="1">
         <v>0.0</v>
@@ -30291,7 +30497,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -30306,7 +30512,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>862836.58240075</v>
+        <v>862836.58240074</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -30338,7 +30544,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-862836.58240075</v>
+        <v>-862836.58240074</v>
       </c>
       <c r="V62" s="1">
         <v>0.0</v>
@@ -30359,7 +30565,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -30374,7 +30580,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>949120.24064082</v>
+        <v>949120.24064081</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -30406,7 +30612,7 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-949120.24064082</v>
+        <v>-949120.24064081</v>
       </c>
       <c r="V63" s="1">
         <v>0.0</v>
@@ -30427,7 +30633,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -30495,7 +30701,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -30563,7 +30769,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -30631,7 +30837,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -30699,7 +30905,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -30714,7 +30920,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>1528567.6387545</v>
+        <v>1528567.6387544</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -30746,7 +30952,7 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-1528567.6387545</v>
+        <v>-1528567.6387544</v>
       </c>
       <c r="V68" s="1">
         <v>0.0</v>
@@ -30767,7 +30973,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -30782,7 +30988,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>1681424.4026299</v>
+        <v>1681424.4026298</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -30814,7 +31020,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-1681424.4026299</v>
+        <v>-1681424.4026298</v>
       </c>
       <c r="V69" s="1">
         <v>0.0</v>
@@ -30835,7 +31041,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -30850,7 +31056,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>1849566.8428929</v>
+        <v>1849566.8428928</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -30882,7 +31088,7 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-1849566.8428929</v>
+        <v>-1849566.8428928</v>
       </c>
       <c r="V70" s="1">
         <v>0.0</v>
@@ -30903,7 +31109,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -30918,7 +31124,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>2034523.5271822</v>
+        <v>2034523.5271821</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -30950,7 +31156,7 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-2034523.5271822</v>
+        <v>-2034523.5271821</v>
       </c>
       <c r="V71" s="1">
         <v>0.0</v>
@@ -30971,7 +31177,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -30986,7 +31192,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>2237975.8799004</v>
+        <v>2237975.8799003</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
@@ -31018,7 +31224,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-2237975.8799004</v>
+        <v>-2237975.8799003</v>
       </c>
       <c r="V72" s="5">
         <v>0.0</v>
@@ -31039,7 +31245,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -31325,7 +31531,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -31333,7 +31539,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -31345,7 +31551,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -31590,7 +31796,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -31654,7 +31860,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -31718,7 +31924,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -31782,7 +31988,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -31846,7 +32052,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -31910,7 +32116,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -31974,7 +32180,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -32038,7 +32244,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -32102,7 +32308,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -32166,7 +32372,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -32230,7 +32436,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -32294,7 +32500,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -32358,7 +32564,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -32422,7 +32628,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -32486,7 +32692,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -32550,7 +32756,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -32614,7 +32820,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -32678,7 +32884,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -32742,7 +32948,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -32806,7 +33012,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -32870,7 +33076,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -32934,7 +33140,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -32998,7 +33204,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -33062,7 +33268,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -33126,7 +33332,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -33190,7 +33396,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -33254,7 +33460,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -33318,7 +33524,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -33382,7 +33588,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -33446,7 +33652,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -33514,7 +33720,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -33582,7 +33788,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -33650,7 +33856,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -33718,7 +33924,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -33786,7 +33992,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -33854,7 +34060,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -33922,7 +34128,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -33990,7 +34196,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -34058,7 +34264,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -34126,7 +34332,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -34194,7 +34400,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -34260,7 +34466,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -34326,7 +34532,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -34392,7 +34598,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -34458,7 +34664,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -34524,7 +34730,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -34590,7 +34796,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -34656,7 +34862,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -34722,7 +34928,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -34788,7 +34994,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -34854,7 +35060,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -34920,7 +35126,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -34986,7 +35192,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -35052,7 +35258,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -35118,7 +35324,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -35184,7 +35390,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -35250,7 +35456,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -35316,7 +35522,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -35382,7 +35588,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -35448,7 +35654,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -35514,7 +35720,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -35580,7 +35786,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -35646,7 +35852,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -35712,7 +35918,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -35778,7 +35984,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -35844,7 +36050,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -36130,7 +36336,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -36138,7 +36344,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -36150,7 +36356,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -36403,7 +36609,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -36471,7 +36677,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -36539,7 +36745,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -36607,7 +36813,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -36675,7 +36881,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -36743,7 +36949,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -36811,7 +37017,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -36879,7 +37085,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -36947,7 +37153,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -37015,7 +37221,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -37083,7 +37289,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -37151,7 +37357,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -37219,7 +37425,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -37287,7 +37493,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -37355,7 +37561,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -37423,7 +37629,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -37491,7 +37697,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -37559,7 +37765,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -37627,7 +37833,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -37695,7 +37901,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -37763,7 +37969,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -37831,7 +38037,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -37899,7 +38105,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -37967,7 +38173,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -38035,7 +38241,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -38103,7 +38309,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -38171,7 +38377,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -38239,7 +38445,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -38307,7 +38513,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -38375,7 +38581,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -38447,7 +38653,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -38519,7 +38725,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -38591,7 +38797,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -38663,7 +38869,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -38735,7 +38941,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -38807,7 +39013,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -38879,7 +39085,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -38951,7 +39157,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -39023,7 +39229,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -39095,7 +39301,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -39167,7 +39373,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -39239,7 +39445,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -39311,7 +39517,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -39383,7 +39589,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -39455,7 +39661,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -39527,7 +39733,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -39599,7 +39805,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -39671,7 +39877,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -39743,7 +39949,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -39815,7 +40021,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -39887,7 +40093,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -39959,7 +40165,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -40031,7 +40237,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -40103,7 +40309,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -40175,7 +40381,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -40247,7 +40453,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -40319,7 +40525,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -40391,7 +40597,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -40463,7 +40669,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -40535,7 +40741,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -40607,7 +40813,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -40679,7 +40885,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -40751,7 +40957,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -40823,7 +41029,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -40895,7 +41101,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -40967,7 +41173,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -41253,7 +41459,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -41261,7 +41467,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -41273,7 +41479,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -41518,7 +41724,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -41582,7 +41788,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -41646,7 +41852,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -41710,7 +41916,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -41774,7 +41980,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -41838,7 +42044,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -41902,7 +42108,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -41966,7 +42172,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -42030,7 +42236,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -42094,7 +42300,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -42158,7 +42364,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -42222,7 +42428,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -42286,7 +42492,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -42350,7 +42556,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -42414,7 +42620,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -42478,7 +42684,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -42542,7 +42748,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -42606,7 +42812,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -42670,7 +42876,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -42734,7 +42940,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -42798,7 +43004,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -42862,7 +43068,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -42926,7 +43132,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -42990,7 +43196,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -43054,7 +43260,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -43118,7 +43324,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -43182,7 +43388,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -43248,7 +43454,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -43318,7 +43524,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -43388,7 +43594,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -43458,7 +43664,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -43528,7 +43734,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -43598,7 +43804,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -43668,7 +43874,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -43738,7 +43944,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -43808,7 +44014,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -43878,7 +44084,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -43948,7 +44154,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -44018,7 +44224,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -44088,7 +44294,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -44103,7 +44309,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>124281.76371815</v>
+        <v>124281.76371816</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
@@ -44137,7 +44343,7 @@
         <v>141.23</v>
       </c>
       <c r="U47" s="6">
-        <v>-124422.99371815</v>
+        <v>-124422.99371816</v>
       </c>
       <c r="V47" s="1">
         <v>14123.0</v>
@@ -44158,7 +44364,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -44173,7 +44379,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>136709.94008997</v>
+        <v>136709.94008998</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
@@ -44207,7 +44413,7 @@
         <v>127.11</v>
       </c>
       <c r="U48" s="6">
-        <v>-136837.05008997</v>
+        <v>-136837.05008998</v>
       </c>
       <c r="V48" s="1">
         <v>12711.0</v>
@@ -44228,7 +44434,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -44243,7 +44449,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>150380.93409896</v>
+        <v>150380.93409898</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
@@ -44277,7 +44483,7 @@
         <v>114.4</v>
       </c>
       <c r="U49" s="6">
-        <v>-150495.33409896</v>
+        <v>-150495.33409898</v>
       </c>
       <c r="V49" s="1">
         <v>11440.0</v>
@@ -44298,7 +44504,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -44313,7 +44519,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>165419.02750886</v>
+        <v>165419.02750888</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
@@ -44347,7 +44553,7 @@
         <v>102.96</v>
       </c>
       <c r="U50" s="6">
-        <v>-165521.98750886</v>
+        <v>-165521.98750888</v>
       </c>
       <c r="V50" s="1">
         <v>10296.0</v>
@@ -44368,7 +44574,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -44383,7 +44589,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>181960.93025975</v>
+        <v>181960.93025977</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
@@ -44417,7 +44623,7 @@
         <v>92.66</v>
       </c>
       <c r="U51" s="6">
-        <v>-182053.59025975</v>
+        <v>-182053.59025977</v>
       </c>
       <c r="V51" s="1">
         <v>9266.0</v>
@@ -44438,7 +44644,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -44453,7 +44659,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>200157.02328572</v>
+        <v>200157.02328575</v>
       </c>
       <c r="F52" s="2">
         <v>0.1</v>
@@ -44487,7 +44693,7 @@
         <v>83.39</v>
       </c>
       <c r="U52" s="6">
-        <v>-200240.41328572</v>
+        <v>-200240.41328575</v>
       </c>
       <c r="V52" s="1">
         <v>8339.0</v>
@@ -44508,7 +44714,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -44523,7 +44729,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>220172.72561429</v>
+        <v>220172.72561433</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
@@ -44557,7 +44763,7 @@
         <v>75.05</v>
       </c>
       <c r="U53" s="13">
-        <v>-220247.77561429</v>
+        <v>-220247.77561433</v>
       </c>
       <c r="V53" s="13">
         <v>7505.0</v>
@@ -44578,7 +44784,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -44593,7 +44799,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>242189.99817572</v>
+        <v>242189.99817576</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
@@ -44627,7 +44833,7 @@
         <v>67.55</v>
       </c>
       <c r="U54" s="6">
-        <v>-242257.54817572</v>
+        <v>-242257.54817576</v>
       </c>
       <c r="V54" s="1">
         <v>6755.0</v>
@@ -44648,7 +44854,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -44663,7 +44869,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>266408.99799329</v>
+        <v>266408.99799334</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
@@ -44697,7 +44903,7 @@
         <v>60.8</v>
       </c>
       <c r="U55" s="6">
-        <v>-266469.79799329</v>
+        <v>-266469.79799334</v>
       </c>
       <c r="V55" s="1">
         <v>6080.0</v>
@@ -44718,7 +44924,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -44733,7 +44939,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>293049.89779262</v>
+        <v>293049.89779267</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
@@ -44767,7 +44973,7 @@
         <v>54.72</v>
       </c>
       <c r="U56" s="6">
-        <v>-293104.61779262</v>
+        <v>-293104.61779267</v>
       </c>
       <c r="V56" s="1">
         <v>5472.0</v>
@@ -44788,7 +44994,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -44803,7 +45009,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>322354.88757189</v>
+        <v>322354.88757194</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
@@ -44837,7 +45043,7 @@
         <v>49.25</v>
       </c>
       <c r="U57" s="13">
-        <v>-322404.13757189</v>
+        <v>-322404.13757194</v>
       </c>
       <c r="V57" s="13">
         <v>4925.0</v>
@@ -44858,7 +45064,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -44873,7 +45079,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>354590.37632907</v>
+        <v>354590.37632913</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
@@ -44907,7 +45113,7 @@
         <v>44.33</v>
       </c>
       <c r="U58" s="6">
-        <v>-354634.70632907</v>
+        <v>-354634.70632913</v>
       </c>
       <c r="V58" s="1">
         <v>4433.0</v>
@@ -44928,7 +45134,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -44943,7 +45149,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>390049.41396198</v>
+        <v>390049.41396204</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -44977,7 +45183,7 @@
         <v>39.9</v>
       </c>
       <c r="U59" s="6">
-        <v>-390089.31396198</v>
+        <v>-390089.31396204</v>
       </c>
       <c r="V59" s="1">
         <v>3990.0</v>
@@ -44998,7 +45204,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -45013,7 +45219,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>429054.35535818</v>
+        <v>429054.35535824</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -45047,7 +45253,7 @@
         <v>35.91</v>
       </c>
       <c r="U60" s="6">
-        <v>-429090.26535818</v>
+        <v>-429090.26535824</v>
       </c>
       <c r="V60" s="1">
         <v>3591.0</v>
@@ -45068,7 +45274,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -45083,7 +45289,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>471959.790894</v>
+        <v>471959.79089406</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -45117,7 +45323,7 @@
         <v>32.32</v>
       </c>
       <c r="U61" s="6">
-        <v>-471992.110894</v>
+        <v>-471992.11089406</v>
       </c>
       <c r="V61" s="1">
         <v>3232.0</v>
@@ -45138,7 +45344,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -45153,7 +45359,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>519155.7699834</v>
+        <v>519155.76998347</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -45187,7 +45393,7 @@
         <v>29.09</v>
       </c>
       <c r="U62" s="6">
-        <v>-519184.8599834</v>
+        <v>-519184.85998347</v>
       </c>
       <c r="V62" s="1">
         <v>2909.0</v>
@@ -45208,7 +45414,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -45223,7 +45429,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>571071.34698174</v>
+        <v>571071.34698182</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -45257,7 +45463,7 @@
         <v>26.18</v>
       </c>
       <c r="U63" s="6">
-        <v>-571097.52698174</v>
+        <v>-571097.52698182</v>
       </c>
       <c r="V63" s="1">
         <v>2618.0</v>
@@ -45278,7 +45484,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -45293,7 +45499,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>628178.48167991</v>
+        <v>628178.48168</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
@@ -45327,7 +45533,7 @@
         <v>23.56</v>
       </c>
       <c r="U64" s="6">
-        <v>-628202.04167991</v>
+        <v>-628202.04168</v>
       </c>
       <c r="V64" s="1">
         <v>2356.0</v>
@@ -45348,7 +45554,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -45363,7 +45569,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>690996.3298479</v>
+        <v>690996.329848</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
@@ -45397,7 +45603,7 @@
         <v>21.2</v>
       </c>
       <c r="U65" s="6">
-        <v>-691017.5298479</v>
+        <v>-691017.529848</v>
       </c>
       <c r="V65" s="1">
         <v>2120.0</v>
@@ -45418,7 +45624,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -45433,7 +45639,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>760095.96283269</v>
+        <v>760095.9628328</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
@@ -45467,7 +45673,7 @@
         <v>19.08</v>
       </c>
       <c r="U66" s="6">
-        <v>-760115.04283269</v>
+        <v>-760115.0428328</v>
       </c>
       <c r="V66" s="1">
         <v>1908.0</v>
@@ -45488,7 +45694,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -45503,7 +45709,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>836105.55911596</v>
+        <v>836105.55911608</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
@@ -45537,7 +45743,7 @@
         <v>17.17</v>
       </c>
       <c r="U67" s="6">
-        <v>-836122.72911596</v>
+        <v>-836122.72911608</v>
       </c>
       <c r="V67" s="1">
         <v>1717.0</v>
@@ -45558,7 +45764,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -45573,7 +45779,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>919716.11502756</v>
+        <v>919716.11502769</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -45607,7 +45813,7 @@
         <v>15.45</v>
       </c>
       <c r="U68" s="6">
-        <v>-919731.56502756</v>
+        <v>-919731.56502769</v>
       </c>
       <c r="V68" s="1">
         <v>1545.0</v>
@@ -45628,7 +45834,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -45643,7 +45849,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>1011687.7265303</v>
+        <v>1011687.7265305</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -45677,7 +45883,7 @@
         <v>13.91</v>
       </c>
       <c r="U69" s="6">
-        <v>-1011701.6365303</v>
+        <v>-1011701.6365305</v>
       </c>
       <c r="V69" s="1">
         <v>1391.0</v>
@@ -45698,7 +45904,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -45713,7 +45919,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>1112856.4991833</v>
+        <v>1112856.4991836</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -45747,7 +45953,7 @@
         <v>12.52</v>
       </c>
       <c r="U70" s="6">
-        <v>-1112869.0191833</v>
+        <v>-1112869.0191836</v>
       </c>
       <c r="V70" s="1">
         <v>1252.0</v>
@@ -45768,7 +45974,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -45783,7 +45989,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>1224142.1491017</v>
+        <v>1224142.149102</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -45817,7 +46023,7 @@
         <v>11.27</v>
       </c>
       <c r="U71" s="6">
-        <v>-1224153.4191017</v>
+        <v>-1224153.419102</v>
       </c>
       <c r="V71" s="1">
         <v>1127.0</v>
@@ -45838,7 +46044,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -45853,7 +46059,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>1346556.3640119</v>
+        <v>1346556.3640122</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
@@ -45887,7 +46093,7 @@
         <v>10.14</v>
       </c>
       <c r="U72" s="5">
-        <v>-1346566.5040119</v>
+        <v>-1346566.5040122</v>
       </c>
       <c r="V72" s="5">
         <v>1014.0</v>
@@ -45908,7 +46114,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:31">

--- a/tests/Feature/config/example_simple_tenpercent.xlsx
+++ b/tests/Feature/config/example_simple_tenpercent.xlsx
@@ -1212,7 +1212,7 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>264000.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>4743.4</v>
+        <v>-259256.6</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
-        <v>0.0</v>
+        <v>290400.0</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>22836.2</v>
+        <v>-267563.8</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <v>0.0</v>
+        <v>319440.0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>42738.5</v>
+        <v>-276701.5</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>351384.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>64630.7</v>
+        <v>-286753.3</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>0.0</v>
+        <v>386522.4</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>88711.9</v>
+        <v>-297810.5</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>425174.75</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>115201.0</v>
+        <v>-309973.75</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>0.0</v>
+        <v>467692.5</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>144341.1</v>
+        <v>-323351.4</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>514461.75</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>176394.0</v>
+        <v>-338067.75</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>0.0</v>
+        <v>565908.2</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>211652.3</v>
+        <v>-354255.9</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>0.0</v>
+        <v>622498.8</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>249750.3925</v>
+        <v>-372748.4075</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>0.0</v>
+        <v>684748.9</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>290644.3325</v>
+        <v>-394104.5675</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>0.0</v>
+        <v>753223.9</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>335628.325</v>
+        <v>-417595.575</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>0.0</v>
+        <v>828546.4</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>385109.2875</v>
+        <v>-443437.1125</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>0.0</v>
+        <v>911401.15</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>439538.565</v>
+        <v>-471862.585</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>0.0</v>
+        <v>1002541.1</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>499410.6625</v>
+        <v>-503130.4375</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>0.0</v>
+        <v>65285.5</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-1509748.4625</v>
+        <v>-1575033.9625</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>71814.5</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-1644804.5</v>
+        <v>-1716619.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>78995.5</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-1793366.73</v>
+        <v>-1872362.23</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>86895.5</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-1956784.4825</v>
+        <v>-2043679.9825</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
+        <v>194585.0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-1938544.02</v>
+        <v>-2133129.02</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>214043.5</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-1941006.4625</v>
+        <v>-2155049.9625</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>235447.5</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-2138507.1475</v>
+        <v>-2373954.6475</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>258992.5</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-2355758.355</v>
+        <v>-2614750.855</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>284891.4</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-2594734.4525</v>
+        <v>-2879625.8525</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>313380.6</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-2857607.23</v>
+        <v>-3170987.83</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>344718.55</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-3146768.17</v>
+        <v>-3491486.72</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>379190.45</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-3464845.12</v>
+        <v>-3844035.57</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>417109.8</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-3814729.6825</v>
+        <v>-4231839.4825</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>458821.05</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-4199602.55</v>
+        <v>-4658423.6</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>504702.7</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-4622964.595</v>
+        <v>-5127667.295</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>324841.05</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-5549325.665</v>
+        <v>-5874166.715</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>357325.35</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-6107657.2875</v>
+        <v>-6464982.6375</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>393057.95</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-6721823.215</v>
+        <v>-7114881.165</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>432363.5</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-7397405.3675</v>
+        <v>-7829768.8675</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>475599.25</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="5">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-8140547.545</v>
+        <v>-8616146.795</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -7677,7 +7677,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -7882,7 +7882,9 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -7950,7 +7952,9 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -8018,7 +8022,9 @@
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -8086,7 +8092,9 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -8154,7 +8162,9 @@
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -8222,7 +8232,9 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -8290,7 +8302,9 @@
       <c r="G12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -8358,7 +8372,9 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -8426,7 +8442,9 @@
       <c r="G14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -8494,7 +8512,9 @@
       <c r="G15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
@@ -8562,7 +8582,9 @@
       <c r="G16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -8630,7 +8652,9 @@
       <c r="G17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
@@ -8698,7 +8722,9 @@
       <c r="G18" s="1">
         <v>0.0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
@@ -8766,7 +8792,9 @@
       <c r="G19" s="1">
         <v>0.0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
@@ -8834,7 +8862,9 @@
       <c r="G20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
@@ -8902,7 +8932,9 @@
       <c r="G21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
@@ -8970,7 +9002,9 @@
       <c r="G22" s="1">
         <v>0.0</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
@@ -9038,7 +9072,9 @@
       <c r="G23" s="1">
         <v>0.0</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
@@ -9106,7 +9142,9 @@
       <c r="G24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
@@ -9174,7 +9212,9 @@
       <c r="G25" s="1">
         <v>0.0</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
@@ -9242,7 +9282,9 @@
       <c r="G26" s="1">
         <v>0.0</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
@@ -9310,7 +9352,9 @@
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
@@ -9378,7 +9422,9 @@
       <c r="G28" s="1">
         <v>0.0</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
@@ -9446,7 +9492,9 @@
       <c r="G29" s="1">
         <v>0.0</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
@@ -9514,7 +9562,9 @@
       <c r="G30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
@@ -9582,7 +9632,9 @@
       <c r="G31" s="1">
         <v>0.0</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
@@ -9650,7 +9702,9 @@
       <c r="G32" s="1">
         <v>0.0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
@@ -9718,7 +9772,9 @@
       <c r="G33" s="1">
         <v>0.0</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
@@ -9786,7 +9842,9 @@
       <c r="G34" s="1">
         <v>0.0</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
@@ -9854,7 +9912,9 @@
       <c r="G35" s="1">
         <v>0.0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
@@ -9922,7 +9982,9 @@
       <c r="G36" s="1">
         <v>0.0</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
@@ -9990,7 +10052,9 @@
       <c r="G37" s="1">
         <v>0.0</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -10060,9 +10124,11 @@
         <v>0.1</v>
       </c>
       <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>264000.0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
@@ -10092,7 +10158,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>330000.0</v>
+        <v>66000.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -10132,9 +10198,11 @@
         <v>0.1</v>
       </c>
       <c r="G39" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="9"/>
+        <v>290400.0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="8"/>
@@ -10164,7 +10232,7 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>363000.0</v>
+        <v>72600.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -10205,9 +10273,11 @@
         <v>0.1</v>
       </c>
       <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H40" s="12"/>
+        <v>319440.0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
       <c r="K40" s="11"/>
@@ -10237,7 +10307,7 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>399300.0</v>
+        <v>79860.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -10278,9 +10348,11 @@
         <v>0.1</v>
       </c>
       <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>351384.0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
@@ -10310,7 +10382,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>439230.0</v>
+        <v>87846.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -10350,9 +10422,11 @@
         <v>0.1</v>
       </c>
       <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>386522.4</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
@@ -10382,7 +10456,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>483153.0</v>
+        <v>96630.6</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -10422,9 +10496,11 @@
         <v>0.1</v>
       </c>
       <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>425174.75</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
@@ -10454,7 +10530,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>531468.3</v>
+        <v>106293.55</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -10494,9 +10570,11 @@
         <v>0.1</v>
       </c>
       <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>467692.5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="1"/>
@@ -10526,7 +10604,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>584615.9</v>
+        <v>116923.4</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -10566,9 +10644,11 @@
         <v>0.1</v>
       </c>
       <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>514461.75</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1"/>
@@ -10598,7 +10678,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>643077.6</v>
+        <v>128615.85</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -10638,9 +10718,11 @@
         <v>0.1</v>
       </c>
       <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>565908.2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="1"/>
@@ -10670,7 +10752,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>707385.8</v>
+        <v>141477.6</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -10710,9 +10792,11 @@
         <v>0.1</v>
       </c>
       <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>622498.8</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="1"/>
@@ -10742,7 +10826,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>778123.5</v>
+        <v>155624.7</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -10782,9 +10866,11 @@
         <v>0.1</v>
       </c>
       <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>684748.9</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="1"/>
@@ -10814,7 +10900,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>855936.4</v>
+        <v>171187.5</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -10854,9 +10940,11 @@
         <v>0.1</v>
       </c>
       <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>753223.9</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1"/>
@@ -10886,7 +10974,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>941530.7</v>
+        <v>188306.8</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -10926,9 +11014,11 @@
         <v>0.1</v>
       </c>
       <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>828546.4</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="1"/>
@@ -10958,7 +11048,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>1035684.1</v>
+        <v>207137.7</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -10998,9 +11088,11 @@
         <v>0.1</v>
       </c>
       <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H51" s="2"/>
+        <v>911401.15</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="1"/>
@@ -11030,7 +11122,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>1139252.4</v>
+        <v>227851.25</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -11070,9 +11162,11 @@
         <v>0.1</v>
       </c>
       <c r="G52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>1002541.1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="1"/>
@@ -11102,7 +11196,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>1253177.2</v>
+        <v>250636.1</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -11140,9 +11234,11 @@
         <v>0.1</v>
       </c>
       <c r="G53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="14"/>
+        <v>65285.5</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I53" s="13"/>
       <c r="J53" s="14"/>
       <c r="K53" s="13"/>
@@ -11172,7 +11268,7 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-696524.5</v>
+        <v>-761810.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -11211,9 +11307,11 @@
         <v>0.1</v>
       </c>
       <c r="G54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>71814.5</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -11243,7 +11341,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-766176.6</v>
+        <v>-837991.1</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -11281,9 +11379,11 @@
         <v>0.1</v>
       </c>
       <c r="G55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>78995.5</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -11313,7 +11413,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-842795.6</v>
+        <v>-921791.1</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -11351,9 +11451,11 @@
         <v>0.1</v>
       </c>
       <c r="G56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>86895.5</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -11383,7 +11485,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-927074.7</v>
+        <v>-1013970.2</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -11421,9 +11523,11 @@
         <v>0.1</v>
       </c>
       <c r="G57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="14"/>
+        <v>95585.0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I57" s="13"/>
       <c r="J57" s="14"/>
       <c r="K57" s="13"/>
@@ -11453,7 +11557,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-1019782.6</v>
+        <v>-1115367.6</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -11492,9 +11596,11 @@
         <v>0.1</v>
       </c>
       <c r="G58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>105143.5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -11524,7 +11630,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-1121761.3</v>
+        <v>-1226904.8</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -11562,9 +11668,11 @@
         <v>0.1</v>
       </c>
       <c r="G59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>115657.5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -11594,7 +11702,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-1233937.8</v>
+        <v>-1349595.3</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -11632,9 +11740,11 @@
         <v>0.1</v>
       </c>
       <c r="G60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>127223.5</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -11664,7 +11774,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-1357331.3</v>
+        <v>-1484554.8</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -11702,9 +11812,11 @@
         <v>0.1</v>
       </c>
       <c r="G61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>139945.5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -11734,7 +11846,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-1493064.8</v>
+        <v>-1633010.3</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -11772,9 +11884,11 @@
         <v>0.1</v>
       </c>
       <c r="G62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>153940.0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -11804,7 +11918,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-1642371.6</v>
+        <v>-1796311.6</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -11842,9 +11956,11 @@
         <v>0.1</v>
       </c>
       <c r="G63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>169334.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -11874,7 +11990,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-1806609.2</v>
+        <v>-1975943.2</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -11912,9 +12028,11 @@
         <v>0.1</v>
       </c>
       <c r="G64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>186267.5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -11944,7 +12062,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-1987269.7</v>
+        <v>-2173537.2</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -11982,9 +12100,11 @@
         <v>0.1</v>
       </c>
       <c r="G65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>204894.5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -12014,7 +12134,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-2185996.5</v>
+        <v>-2390891.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -12052,9 +12172,11 @@
         <v>0.1</v>
       </c>
       <c r="G66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>225384.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -12084,7 +12206,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-2404596.6</v>
+        <v>-2629980.6</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -12122,9 +12244,11 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>247922.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -12154,7 +12278,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-2645057.5</v>
+        <v>-2892979.5</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -12192,9 +12316,11 @@
         <v>0.1</v>
       </c>
       <c r="G68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>42382.5</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -12224,7 +12350,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-3370227.2</v>
+        <v>-3412609.7</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -12262,9 +12388,11 @@
         <v>0.1</v>
       </c>
       <c r="G69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>46621.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -12294,7 +12422,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-3707249.2</v>
+        <v>-3753870.2</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -12332,9 +12460,11 @@
         <v>0.1</v>
       </c>
       <c r="G70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>51283.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -12364,7 +12494,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-4077974.1</v>
+        <v>-4129257.1</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -12402,9 +12532,11 @@
         <v>0.1</v>
       </c>
       <c r="G71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>56411.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -12434,7 +12566,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-4485772.0</v>
+        <v>-4542183.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -12472,9 +12604,11 @@
         <v>0.1</v>
       </c>
       <c r="G72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="16"/>
+        <v>62051.5</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="16"/>
       <c r="K72" s="5"/>
@@ -12504,7 +12638,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-4934350.4</v>
+        <v>-4996401.9</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -17949,7 +18083,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.282" bestFit="true" customWidth="true" style="0"/>
@@ -18154,7 +18288,9 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -18222,7 +18358,9 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -18290,7 +18428,9 @@
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -18358,7 +18498,9 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -18426,7 +18568,9 @@
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -18494,7 +18638,9 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -18562,7 +18708,9 @@
       <c r="G12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -18630,7 +18778,9 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -18698,7 +18848,9 @@
       <c r="G14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -18766,7 +18918,9 @@
       <c r="G15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
@@ -18834,7 +18988,9 @@
       <c r="G16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -18902,7 +19058,9 @@
       <c r="G17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
@@ -18970,7 +19128,9 @@
       <c r="G18" s="1">
         <v>0.0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
@@ -19038,7 +19198,9 @@
       <c r="G19" s="1">
         <v>0.0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
@@ -19106,7 +19268,9 @@
       <c r="G20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
@@ -19174,7 +19338,9 @@
       <c r="G21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
@@ -19242,7 +19408,9 @@
       <c r="G22" s="1">
         <v>0.0</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
@@ -19310,7 +19478,9 @@
       <c r="G23" s="1">
         <v>0.0</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
@@ -19378,7 +19548,9 @@
       <c r="G24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
@@ -19446,7 +19618,9 @@
       <c r="G25" s="1">
         <v>0.0</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
@@ -19514,7 +19688,9 @@
       <c r="G26" s="1">
         <v>0.0</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
@@ -19582,7 +19758,9 @@
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
@@ -19650,7 +19828,9 @@
       <c r="G28" s="1">
         <v>0.0</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
@@ -19718,7 +19898,9 @@
       <c r="G29" s="1">
         <v>0.0</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
@@ -19786,7 +19968,9 @@
       <c r="G30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
@@ -19854,7 +20038,9 @@
       <c r="G31" s="1">
         <v>0.0</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
@@ -19922,7 +20108,9 @@
       <c r="G32" s="1">
         <v>0.0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
@@ -19990,7 +20178,9 @@
       <c r="G33" s="1">
         <v>0.0</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
@@ -20058,7 +20248,9 @@
       <c r="G34" s="1">
         <v>0.0</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
@@ -20126,7 +20318,9 @@
       <c r="G35" s="1">
         <v>0.0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
@@ -20194,7 +20388,9 @@
       <c r="G36" s="1">
         <v>0.0</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
@@ -20262,7 +20458,9 @@
       <c r="G37" s="1">
         <v>0.0</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -20330,7 +20528,9 @@
       <c r="G38" s="1">
         <v>0.0</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
@@ -20398,7 +20598,9 @@
       <c r="G39" s="8">
         <v>0.0</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="8"/>
@@ -20467,7 +20669,9 @@
       <c r="G40" s="11">
         <v>0.0</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
       <c r="K40" s="11"/>
@@ -20536,7 +20740,9 @@
       <c r="G41" s="1">
         <v>0.0</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
@@ -20604,7 +20810,9 @@
       <c r="G42" s="1">
         <v>0.0</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
@@ -20672,7 +20880,9 @@
       <c r="G43" s="1">
         <v>0.0</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
@@ -20740,7 +20950,9 @@
       <c r="G44" s="1">
         <v>0.0</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="1"/>
@@ -20808,7 +21020,9 @@
       <c r="G45" s="1">
         <v>0.0</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1"/>
@@ -20876,7 +21090,9 @@
       <c r="G46" s="1">
         <v>0.0</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="1"/>
@@ -20944,7 +21160,9 @@
       <c r="G47" s="1">
         <v>0.0</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="1"/>
@@ -21012,7 +21230,9 @@
       <c r="G48" s="1">
         <v>0.0</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="1"/>
@@ -21080,7 +21300,9 @@
       <c r="G49" s="1">
         <v>0.0</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1"/>
@@ -21148,7 +21370,9 @@
       <c r="G50" s="1">
         <v>0.0</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="1"/>
@@ -21216,7 +21440,9 @@
       <c r="G51" s="1">
         <v>0.0</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="1"/>
@@ -21284,7 +21510,9 @@
       <c r="G52" s="1">
         <v>0.0</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="1"/>
@@ -21352,7 +21580,9 @@
       <c r="G53" s="13">
         <v>0.0</v>
       </c>
-      <c r="H53" s="14"/>
+      <c r="H53" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I53" s="13"/>
       <c r="J53" s="14"/>
       <c r="K53" s="13"/>
@@ -21421,7 +21651,9 @@
       <c r="G54" s="1">
         <v>0.0</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -21489,7 +21721,9 @@
       <c r="G55" s="1">
         <v>0.0</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -21557,7 +21791,9 @@
       <c r="G56" s="1">
         <v>0.0</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -21625,9 +21861,11 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="14"/>
+        <v>99000.0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I57" s="13"/>
       <c r="J57" s="14"/>
       <c r="K57" s="13"/>
@@ -21657,7 +21895,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>198000.0</v>
+        <v>99000.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -21698,9 +21936,11 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>108900.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -21730,7 +21970,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>217800.0</v>
+        <v>108900.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -21771,9 +22011,11 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>119790.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -21803,7 +22045,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>239580.0</v>
+        <v>119790.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -21844,9 +22086,11 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>131769.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -21876,7 +22120,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>263538.0</v>
+        <v>131769.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -21917,9 +22161,11 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>144945.9</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -21949,7 +22195,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>289891.8</v>
+        <v>144945.9</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -21990,9 +22236,11 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>159440.6</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -22022,7 +22270,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>318881.2</v>
+        <v>159440.6</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -22063,9 +22311,11 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>175384.55</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -22095,7 +22345,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>350769.1</v>
+        <v>175384.55</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -22136,9 +22386,11 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>192922.95</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -22168,7 +22420,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>385845.9</v>
+        <v>192922.95</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -22209,9 +22461,11 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>212215.3</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -22241,7 +22495,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>424430.6</v>
+        <v>212215.3</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -22282,9 +22536,11 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>233437.05</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -22314,7 +22570,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>466874.1</v>
+        <v>233437.05</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -22355,9 +22611,11 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>256780.7</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -22387,7 +22645,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>513561.4</v>
+        <v>256780.7</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -22428,9 +22686,11 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>282458.55</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -22460,7 +22720,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>564917.1</v>
+        <v>282458.55</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -22501,9 +22761,11 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>310704.35</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -22533,7 +22795,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>621408.7</v>
+        <v>310704.35</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -22574,9 +22836,11 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>341774.95</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -22606,7 +22870,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>683549.9</v>
+        <v>341774.95</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -22647,9 +22911,11 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>375952.5</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -22679,7 +22945,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>751905.0</v>
+        <v>375952.5</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -22720,9 +22986,11 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="16"/>
+        <v>413547.75</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="16"/>
       <c r="K72" s="5"/>
@@ -22752,7 +23020,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>827095.5</v>
+        <v>413547.75</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
